--- a/board Overviews.xlsx
+++ b/board Overviews.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a50f0f76735a0c6b/Documents/Pinball/PortalPinball-V4.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{71A0D3BC-EF29-42BB-95C3-409B160B156F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61B2446C-E9D8-49C4-8D41-14E412A196AB}"/>
+  <xr:revisionPtr revIDLastSave="144" documentId="8_{71A0D3BC-EF29-42BB-95C3-409B160B156F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5E399B0-9DA4-4946-BD42-0E44C23DC993}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{992D9940-FEE0-4AED-9001-DC6BE0040B0B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="725" xr2:uid="{992D9940-FEE0-4AED-9001-DC6BE0040B0B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cobrapin - Game Funtion" sheetId="8" r:id="rId1"/>
-    <sheet name="PSOC4200 - Game Function" sheetId="7" r:id="rId2"/>
-    <sheet name="---" sheetId="9" r:id="rId3"/>
-    <sheet name="Cobrapin - Doc" sheetId="5" r:id="rId4"/>
-    <sheet name="PSOC4200 - Config" sheetId="6" r:id="rId5"/>
-    <sheet name="PSOC4200 - Doc" sheetId="1" r:id="rId6"/>
-    <sheet name="Coil" sheetId="2" r:id="rId7"/>
-    <sheet name="Switch" sheetId="4" r:id="rId8"/>
-    <sheet name="Incand" sheetId="3" r:id="rId9"/>
+    <sheet name="LEDs" sheetId="10" r:id="rId1"/>
+    <sheet name="Cobrapin - Game Funtion" sheetId="8" r:id="rId2"/>
+    <sheet name="PSOC4200 - Game Function" sheetId="7" r:id="rId3"/>
+    <sheet name="---" sheetId="9" r:id="rId4"/>
+    <sheet name="Cobrapin - Doc" sheetId="5" r:id="rId5"/>
+    <sheet name="PSOC4200 - Config" sheetId="6" r:id="rId6"/>
+    <sheet name="PSOC4200 - Doc" sheetId="1" r:id="rId7"/>
+    <sheet name="Coil" sheetId="2" r:id="rId8"/>
+    <sheet name="Switch" sheetId="4" r:id="rId9"/>
+    <sheet name="Incand" sheetId="3" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="266">
   <si>
     <t>PSOC4200</t>
   </si>
@@ -655,6 +656,255 @@
   </si>
   <si>
     <t>com5 = 1-0-x</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>0-0-20</t>
+  </si>
+  <si>
+    <t>0-0-21</t>
+  </si>
+  <si>
+    <t>0-0-22</t>
+  </si>
+  <si>
+    <t>0-0-23</t>
+  </si>
+  <si>
+    <t>0-0-28</t>
+  </si>
+  <si>
+    <t>0-0-29</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>Ready to launch</t>
+  </si>
+  <si>
+    <t>Ball save</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>bottom lane 2</t>
+  </si>
+  <si>
+    <t>bottom lane 3</t>
+  </si>
+  <si>
+    <t>toplane1</t>
+  </si>
+  <si>
+    <t>toplane2</t>
+  </si>
+  <si>
+    <t>toplane3</t>
+  </si>
+  <si>
+    <t>top lane 1</t>
+  </si>
+  <si>
+    <t>top lane 2</t>
+  </si>
+  <si>
+    <t>top lane 3</t>
+  </si>
+  <si>
+    <t>bottom lane 1 (right most)</t>
+  </si>
+  <si>
+    <t>bottom lane 4 (left most</t>
+  </si>
+  <si>
+    <t>right sling</t>
+  </si>
+  <si>
+    <t>left sling</t>
+  </si>
+  <si>
+    <t>0-0-30</t>
+  </si>
+  <si>
+    <t>0-0-31</t>
+  </si>
+  <si>
+    <t>target right side lowest</t>
+  </si>
+  <si>
+    <t>target right side 2</t>
+  </si>
+  <si>
+    <t>lane-b1</t>
+  </si>
+  <si>
+    <t>lane-b2</t>
+  </si>
+  <si>
+    <t>sling-r</t>
+  </si>
+  <si>
+    <t>sling-l</t>
+  </si>
+  <si>
+    <t>lane-b3</t>
+  </si>
+  <si>
+    <t>lane-b4</t>
+  </si>
+  <si>
+    <t>target-r1</t>
+  </si>
+  <si>
+    <t>target-r2</t>
+  </si>
+  <si>
+    <t>Right orbit</t>
+  </si>
+  <si>
+    <t>orbit-r</t>
+  </si>
+  <si>
+    <t>left orbit</t>
+  </si>
+  <si>
+    <t>orbit-l</t>
+  </si>
+  <si>
+    <t>top orbit</t>
+  </si>
+  <si>
+    <t>orbit-t</t>
+  </si>
+  <si>
+    <t>Right ramp entry</t>
+  </si>
+  <si>
+    <t>ramp-r</t>
+  </si>
+  <si>
+    <t>right portal</t>
+  </si>
+  <si>
+    <t>portal-r</t>
+  </si>
+  <si>
+    <t>bumper 1</t>
+  </si>
+  <si>
+    <t>bumper 2</t>
+  </si>
+  <si>
+    <t>bumper 3</t>
+  </si>
+  <si>
+    <t>bumper-1</t>
+  </si>
+  <si>
+    <t>bumper-2</t>
+  </si>
+  <si>
+    <t>bumper-3</t>
+  </si>
+  <si>
+    <t>0-0-32</t>
+  </si>
+  <si>
+    <t>0-0-33</t>
+  </si>
+  <si>
+    <t>0-0-34</t>
+  </si>
+  <si>
+    <t>0-0-35</t>
+  </si>
+  <si>
+    <t>0-0-36</t>
+  </si>
+  <si>
+    <t>0-0-37</t>
+  </si>
+  <si>
+    <t>target exit 1</t>
+  </si>
+  <si>
+    <t>target exit 2</t>
+  </si>
+  <si>
+    <t>target-e1</t>
+  </si>
+  <si>
+    <t>target-e2</t>
+  </si>
+  <si>
+    <t>aerial plate active</t>
+  </si>
+  <si>
+    <t>aerial</t>
+  </si>
+  <si>
+    <t>middle side portal</t>
+  </si>
+  <si>
+    <t>portal-m</t>
+  </si>
+  <si>
+    <t>left ramp</t>
+  </si>
+  <si>
+    <t>ramp-l</t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>big button</t>
+  </si>
+  <si>
+    <t>&lt;modes&gt;</t>
+  </si>
+  <si>
+    <t>target middle 1</t>
+  </si>
+  <si>
+    <t>target middle 2</t>
+  </si>
+  <si>
+    <t>target middle 3</t>
+  </si>
+  <si>
+    <t>target middle 4</t>
+  </si>
+  <si>
+    <t>0-0-38</t>
+  </si>
+  <si>
+    <t>0-0-39</t>
+  </si>
+  <si>
+    <t>0-0-40</t>
+  </si>
+  <si>
+    <t>target-m1</t>
+  </si>
+  <si>
+    <t>target-m2</t>
+  </si>
+  <si>
+    <t>target-m4</t>
+  </si>
+  <si>
+    <t>target-m3</t>
   </si>
 </sst>
 </file>
@@ -1924,47 +2174,662 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E848134-5BBE-40A2-B435-5EF431EA961E}">
+  <dimension ref="B1:E42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="18.54296875" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B2" t="str">
+        <f>"led-"&amp;C2</f>
+        <v>led-launch</v>
+      </c>
+      <c r="C2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B42" si="0">"led-"&amp;C3</f>
+        <v>led-save</v>
+      </c>
+      <c r="C3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>led-lane-b1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>led-lane-b2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>led-sling-r</v>
+      </c>
+      <c r="C6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>led-sling-l</v>
+      </c>
+      <c r="C7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>led-lane-b3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>led-lane-b4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>217</v>
+      </c>
+      <c r="D9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>led-target-r1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>led-target-r2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>219</v>
+      </c>
+      <c r="D11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>led-orbit-r</v>
+      </c>
+      <c r="C12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>led-ramp-r</v>
+      </c>
+      <c r="C13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>led-target-m1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>262</v>
+      </c>
+      <c r="D14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>led-portal-r</v>
+      </c>
+      <c r="C15" t="s">
+        <v>229</v>
+      </c>
+      <c r="D15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>led-target-m2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>263</v>
+      </c>
+      <c r="D16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>led-bumper-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>233</v>
+      </c>
+      <c r="D17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>led-bumper-2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>234</v>
+      </c>
+      <c r="D18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>led-bumper-3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>235</v>
+      </c>
+      <c r="D19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>led-toplane1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>led-toplane2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>199</v>
+      </c>
+      <c r="D21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>led-toplane3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>200</v>
+      </c>
+      <c r="D22" t="s">
+        <v>186</v>
+      </c>
+      <c r="E22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>led-orbit-t</v>
+      </c>
+      <c r="C23" t="s">
+        <v>225</v>
+      </c>
+      <c r="D23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E23" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>led-target-e1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>244</v>
+      </c>
+      <c r="D24" t="s">
+        <v>188</v>
+      </c>
+      <c r="E24" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>led-target-e2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>245</v>
+      </c>
+      <c r="D25" t="s">
+        <v>189</v>
+      </c>
+      <c r="E25" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>led-aerial</v>
+      </c>
+      <c r="C26" t="s">
+        <v>247</v>
+      </c>
+      <c r="D26" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>led-target-m3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>265</v>
+      </c>
+      <c r="D27" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>led-portal-m</v>
+      </c>
+      <c r="C28" t="s">
+        <v>249</v>
+      </c>
+      <c r="D28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>led-target-m4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>264</v>
+      </c>
+      <c r="D29" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>led-ramp-l</v>
+      </c>
+      <c r="C30" t="s">
+        <v>251</v>
+      </c>
+      <c r="D30" t="s">
+        <v>190</v>
+      </c>
+      <c r="E30" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>led-orbit-l</v>
+      </c>
+      <c r="C31" t="s">
+        <v>223</v>
+      </c>
+      <c r="D31" t="s">
+        <v>191</v>
+      </c>
+      <c r="E31" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>led-button</v>
+      </c>
+      <c r="C32" t="s">
+        <v>252</v>
+      </c>
+      <c r="D32" t="s">
+        <v>208</v>
+      </c>
+      <c r="E32" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>led-</v>
+      </c>
+      <c r="D33" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>led-</v>
+      </c>
+      <c r="D34" t="s">
+        <v>236</v>
+      </c>
+      <c r="E34" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>led-</v>
+      </c>
+      <c r="D35" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>led-</v>
+      </c>
+      <c r="D36" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>led-</v>
+      </c>
+      <c r="D37" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>led-</v>
+      </c>
+      <c r="D38" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>led-</v>
+      </c>
+      <c r="D39" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>led-</v>
+      </c>
+      <c r="D40" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>led-</v>
+      </c>
+      <c r="D41" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>led-</v>
+      </c>
+      <c r="D42" t="s">
+        <v>261</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2780EF84-6B31-4EAC-80B5-D5D7A18FF689}">
+  <dimension ref="B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="22" spans="2:2" ht="19" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64143CA7-704E-4C2D-9785-F0A4C7EA94D7}">
   <dimension ref="B2:DA44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="3.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.77734375" customWidth="1"/>
-    <col min="4" max="6" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="3.6328125" customWidth="1"/>
+    <col min="3" max="3" width="25.81640625" customWidth="1"/>
+    <col min="4" max="6" width="3.453125" customWidth="1"/>
     <col min="7" max="7" width="4" customWidth="1"/>
-    <col min="8" max="10" width="3.77734375" customWidth="1"/>
-    <col min="11" max="11" width="3.21875" customWidth="1"/>
-    <col min="12" max="15" width="2.44140625" customWidth="1"/>
-    <col min="16" max="25" width="2.21875" customWidth="1"/>
-    <col min="26" max="26" width="2.77734375" customWidth="1"/>
-    <col min="27" max="45" width="2.21875" customWidth="1"/>
-    <col min="46" max="46" width="2.5546875" customWidth="1"/>
-    <col min="47" max="68" width="2.21875" customWidth="1"/>
-    <col min="71" max="71" width="11.88671875" customWidth="1"/>
-    <col min="76" max="84" width="3.5546875" customWidth="1"/>
-    <col min="85" max="85" width="17.5546875" customWidth="1"/>
-    <col min="86" max="94" width="3.5546875" customWidth="1"/>
-    <col min="95" max="95" width="17.77734375" customWidth="1"/>
-    <col min="96" max="104" width="3.5546875" customWidth="1"/>
+    <col min="8" max="10" width="3.81640625" customWidth="1"/>
+    <col min="11" max="11" width="3.1796875" customWidth="1"/>
+    <col min="12" max="15" width="2.453125" customWidth="1"/>
+    <col min="16" max="25" width="2.1796875" customWidth="1"/>
+    <col min="26" max="26" width="2.81640625" customWidth="1"/>
+    <col min="27" max="45" width="2.1796875" customWidth="1"/>
+    <col min="46" max="46" width="2.54296875" customWidth="1"/>
+    <col min="47" max="68" width="2.1796875" customWidth="1"/>
+    <col min="71" max="71" width="11.90625" customWidth="1"/>
+    <col min="76" max="84" width="3.54296875" customWidth="1"/>
+    <col min="85" max="85" width="17.54296875" customWidth="1"/>
+    <col min="86" max="94" width="3.54296875" customWidth="1"/>
+    <col min="95" max="95" width="17.81640625" customWidth="1"/>
+    <col min="96" max="104" width="3.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:105" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:105" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="2:105" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:105" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="4" spans="2:105" ht="164.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:105" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:105" ht="164.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:105" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="BX5" s="22" t="s">
         <v>103</v>
       </c>
@@ -2042,9 +2907,9 @@
       </c>
       <c r="DA5" s="22"/>
     </row>
-    <row r="6" spans="2:105" ht="3.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:105" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="2:105" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:105" ht="3.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:105" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:105" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>24</v>
       </c>
@@ -2052,7 +2917,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:105" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:105" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>125</v>
       </c>
@@ -2060,7 +2925,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="2:105" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:105" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>121</v>
       </c>
@@ -2068,7 +2933,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="2:105" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:105" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>121</v>
       </c>
@@ -2076,8 +2941,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="2:71" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:71" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:71" ht="6" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="2:71" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>122</v>
       </c>
@@ -2085,7 +2950,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="2:71" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:71" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>123</v>
       </c>
@@ -2093,7 +2958,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="2:71" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:71" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>124</v>
       </c>
@@ -2101,8 +2966,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="2:71" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="2:71" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:71" ht="5.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="2:71" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>126</v>
       </c>
@@ -2110,7 +2975,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="30" spans="2:71" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:71" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>126</v>
       </c>
@@ -2118,7 +2983,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="31" spans="2:71" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:71" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>127</v>
       </c>
@@ -2126,7 +2991,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="2:71" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:71" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>127</v>
       </c>
@@ -2134,8 +2999,8 @@
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="2:71" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="2:71" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:71" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="35" spans="2:71" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>126</v>
       </c>
@@ -2143,7 +3008,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="2:71" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:71" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>126</v>
       </c>
@@ -2151,7 +3016,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="2:71" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:71" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>128</v>
       </c>
@@ -2159,7 +3024,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="38" spans="2:71" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:71" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>128</v>
       </c>
@@ -2167,8 +3032,8 @@
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="2:71" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="2:71" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:71" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="2:71" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C43" s="21"/>
       <c r="D43" s="22" t="s">
         <v>62</v>
@@ -2346,7 +3211,7 @@
       <c r="BO43" s="22"/>
       <c r="BP43" s="22"/>
     </row>
-    <row r="44" spans="2:71" ht="159.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="2:71" ht="159.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2354,71 +3219,71 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896D7F36-299A-4BDE-822D-D1A9A709E1EC}">
   <dimension ref="B1:AZ47"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.81640625" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.77734375" style="15" customWidth="1"/>
-    <col min="6" max="6" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.81640625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="5.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.77734375" style="15" customWidth="1"/>
+    <col min="9" max="9" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.81640625" style="15" customWidth="1"/>
     <col min="11" max="11" width="11" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.77734375" customWidth="1"/>
-    <col min="15" max="15" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.54296875" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.81640625" customWidth="1"/>
+    <col min="15" max="15" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.54296875" style="15" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" style="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.77734375" style="15" customWidth="1"/>
-    <col min="19" max="19" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.77734375" style="15" customWidth="1"/>
+    <col min="18" max="18" width="5.81640625" style="15" customWidth="1"/>
+    <col min="19" max="19" width="5.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.81640625" style="15" customWidth="1"/>
     <col min="24" max="24" width="11" style="17" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="2.77734375" customWidth="1"/>
-    <col min="28" max="28" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.54296875" style="17" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="2.81640625" customWidth="1"/>
+    <col min="28" max="28" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.54296875" style="15" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="11" style="15" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.77734375" style="15" customWidth="1"/>
-    <col min="32" max="32" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="4.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="5.77734375" style="15" customWidth="1"/>
+    <col min="31" max="31" width="5.81640625" style="15" customWidth="1"/>
+    <col min="32" max="32" width="5.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5.81640625" style="15" customWidth="1"/>
     <col min="37" max="37" width="11" style="17" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.5546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="2.77734375" customWidth="1"/>
-    <col min="41" max="41" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="14.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.54296875" style="17" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="2.81640625" customWidth="1"/>
+    <col min="41" max="41" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="14.54296875" style="15" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="11" style="15" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="5.77734375" style="15" customWidth="1"/>
-    <col min="45" max="45" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="4.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="5.77734375" style="15" customWidth="1"/>
+    <col min="44" max="44" width="5.81640625" style="15" customWidth="1"/>
+    <col min="45" max="45" width="5.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="4.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="5.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="5.81640625" style="15" customWidth="1"/>
     <col min="50" max="50" width="11" style="17" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="14.5546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="14.54296875" style="17" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:52" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>137</v>
       </c>
@@ -2516,8 +3381,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="2:52" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:52" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:52" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="15" t="s">
@@ -2591,7 +3456,7 @@
       <c r="AY3" s="18"/>
       <c r="AZ3" s="18"/>
     </row>
-    <row r="4" spans="2:52" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="15" t="s">
@@ -2657,7 +3522,7 @@
       <c r="AY4" s="18"/>
       <c r="AZ4" s="18"/>
     </row>
-    <row r="5" spans="2:52" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="15" t="s">
@@ -2723,7 +3588,7 @@
       <c r="AY5" s="18"/>
       <c r="AZ5" s="18"/>
     </row>
-    <row r="6" spans="2:52" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -2781,7 +3646,7 @@
       <c r="AY6" s="18"/>
       <c r="AZ6" s="18"/>
     </row>
-    <row r="7" spans="2:52" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B7" s="33" t="s">
         <v>138</v>
       </c>
@@ -2869,7 +3734,7 @@
       <c r="AY7" s="18"/>
       <c r="AZ7" s="18"/>
     </row>
-    <row r="8" spans="2:52" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B8" s="33" t="s">
         <v>139</v>
       </c>
@@ -2988,7 +3853,7 @@
         <v>2-3-16</v>
       </c>
     </row>
-    <row r="9" spans="2:52" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B9" s="33" t="s">
         <v>146</v>
       </c>
@@ -3107,7 +3972,7 @@
         <v>2-3-17</v>
       </c>
     </row>
-    <row r="10" spans="2:52" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B10" s="33" t="s">
         <v>146</v>
       </c>
@@ -3226,7 +4091,7 @@
         <v>2-3-18</v>
       </c>
     </row>
-    <row r="11" spans="2:52" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>138</v>
       </c>
@@ -3345,7 +4210,7 @@
         <v>2-3-19</v>
       </c>
     </row>
-    <row r="12" spans="2:52" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>139</v>
       </c>
@@ -3472,7 +4337,7 @@
         <v>2-3-20</v>
       </c>
     </row>
-    <row r="13" spans="2:52" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>140</v>
       </c>
@@ -3591,7 +4456,7 @@
         <v>2-3-21</v>
       </c>
     </row>
-    <row r="14" spans="2:52" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>141</v>
       </c>
@@ -3710,7 +4575,7 @@
         <v>2-3-22</v>
       </c>
     </row>
-    <row r="15" spans="2:52" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B15" s="33" t="s">
         <v>142</v>
       </c>
@@ -3829,7 +4694,7 @@
         <v>2-3-23</v>
       </c>
     </row>
-    <row r="16" spans="2:52" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B16" s="33" t="s">
         <v>143</v>
       </c>
@@ -3948,7 +4813,7 @@
         <v>2-3-24</v>
       </c>
     </row>
-    <row r="17" spans="2:52" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B17" s="33" t="s">
         <v>144</v>
       </c>
@@ -4067,7 +4932,7 @@
         <v>2-3-25</v>
       </c>
     </row>
-    <row r="18" spans="2:52" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B18" s="33" t="s">
         <v>146</v>
       </c>
@@ -4186,7 +5051,7 @@
         <v>2-3-26</v>
       </c>
     </row>
-    <row r="19" spans="2:52" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>142</v>
       </c>
@@ -4305,7 +5170,7 @@
         <v>2-3-27</v>
       </c>
     </row>
-    <row r="20" spans="2:52" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>143</v>
       </c>
@@ -4424,7 +5289,7 @@
         <v>2-3-28</v>
       </c>
     </row>
-    <row r="21" spans="2:52" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>144</v>
       </c>
@@ -4543,7 +5408,7 @@
         <v>2-3-29</v>
       </c>
     </row>
-    <row r="22" spans="2:52" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>179</v>
       </c>
@@ -4662,7 +5527,7 @@
         <v>2-3-30</v>
       </c>
     </row>
-    <row r="23" spans="2:52" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
@@ -4751,7 +5616,7 @@
         <v>2-3-31</v>
       </c>
     </row>
-    <row r="24" spans="2:52" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
@@ -4809,7 +5674,7 @@
       <c r="AY24" s="18"/>
       <c r="AZ24" s="18"/>
     </row>
-    <row r="25" spans="2:52" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:52" x14ac:dyDescent="0.35">
       <c r="F25" s="5"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
@@ -4827,7 +5692,7 @@
       <c r="AU25" s="13"/>
       <c r="AV25" s="10"/>
     </row>
-    <row r="26" spans="2:52" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:52" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F26" s="6" t="s">
         <v>22</v>
       </c>
@@ -4877,8 +5742,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:52" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="2:52" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:52" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="2:52" x14ac:dyDescent="0.35">
       <c r="F28" s="2" t="s">
         <v>21</v>
       </c>
@@ -4928,7 +5793,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:52" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:52" x14ac:dyDescent="0.35">
       <c r="F29" s="3"/>
       <c r="I29" s="8"/>
       <c r="S29" s="3"/>
@@ -4938,7 +5803,7 @@
       <c r="AS29" s="3"/>
       <c r="AV29" s="8"/>
     </row>
-    <row r="30" spans="2:52" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:52" x14ac:dyDescent="0.35">
       <c r="F30" s="3"/>
       <c r="I30" s="8"/>
       <c r="S30" s="3"/>
@@ -4948,7 +5813,7 @@
       <c r="AS30" s="3"/>
       <c r="AV30" s="8"/>
     </row>
-    <row r="31" spans="2:52" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:52" x14ac:dyDescent="0.35">
       <c r="F31" s="3"/>
       <c r="G31" s="36" t="s">
         <v>180</v>
@@ -4976,7 +5841,7 @@
       <c r="AU31" s="36"/>
       <c r="AV31" s="8"/>
     </row>
-    <row r="32" spans="2:52" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:52" x14ac:dyDescent="0.35">
       <c r="F32" s="3"/>
       <c r="G32" s="23" t="s">
         <v>129</v>
@@ -5009,7 +5874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="3:48" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:48" x14ac:dyDescent="0.35">
       <c r="F33" s="3"/>
       <c r="I33" s="8"/>
       <c r="S33" s="3"/>
@@ -5019,7 +5884,7 @@
       <c r="AS33" s="3"/>
       <c r="AV33" s="8"/>
     </row>
-    <row r="34" spans="3:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F34" s="6"/>
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
@@ -5037,7 +5902,7 @@
       <c r="AU34" s="14"/>
       <c r="AV34" s="11"/>
     </row>
-    <row r="35" spans="3:48" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:48" x14ac:dyDescent="0.35">
       <c r="G35" s="2"/>
       <c r="H35" s="7"/>
       <c r="T35" s="2"/>
@@ -5047,7 +5912,7 @@
       <c r="AT35" s="2"/>
       <c r="AU35" s="7"/>
     </row>
-    <row r="36" spans="3:48" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:48" x14ac:dyDescent="0.35">
       <c r="G36" s="37" t="s">
         <v>26</v>
       </c>
@@ -5065,7 +5930,7 @@
       </c>
       <c r="AU36" s="38"/>
     </row>
-    <row r="37" spans="3:48" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G37" s="6"/>
       <c r="H37" s="11"/>
       <c r="T37" s="6"/>
@@ -5075,7 +5940,7 @@
       <c r="AT37" s="6"/>
       <c r="AU37" s="11"/>
     </row>
-    <row r="41" spans="3:48" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:48" x14ac:dyDescent="0.35">
       <c r="F41" s="25" t="s">
         <v>130</v>
       </c>
@@ -5084,13 +5949,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="3:48" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:48" x14ac:dyDescent="0.35">
       <c r="C43" s="17"/>
       <c r="P43" s="17"/>
       <c r="AC43" s="17"/>
       <c r="AP43" s="17"/>
     </row>
-    <row r="44" spans="3:48" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:48" x14ac:dyDescent="0.35">
       <c r="D44" s="29" t="s">
         <v>132</v>
       </c>
@@ -5099,7 +5964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:48" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:48" x14ac:dyDescent="0.35">
       <c r="D45" s="28" t="s">
         <v>133</v>
       </c>
@@ -5108,7 +5973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:48" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:48" x14ac:dyDescent="0.35">
       <c r="D46" s="30" t="s">
         <v>134</v>
       </c>
@@ -5117,7 +5982,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="3:48" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:48" x14ac:dyDescent="0.35">
       <c r="D47" s="31" t="s">
         <v>136</v>
       </c>
@@ -5143,7 +6008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92BC837E-B245-42A3-8F6D-5B1D3622F670}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5151,61 +6016,61 @@
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12CF9BA9-790E-4443-8CE6-3586A1333188}">
   <dimension ref="C1:DA109"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="C7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AS109" sqref="AS109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="26.77734375" customWidth="1"/>
-    <col min="4" max="6" width="3.44140625" customWidth="1"/>
+    <col min="3" max="3" width="26.81640625" customWidth="1"/>
+    <col min="4" max="6" width="3.453125" customWidth="1"/>
     <col min="7" max="7" width="4" customWidth="1"/>
-    <col min="8" max="10" width="3.77734375" customWidth="1"/>
-    <col min="11" max="11" width="3.21875" customWidth="1"/>
-    <col min="12" max="15" width="2.44140625" customWidth="1"/>
-    <col min="16" max="25" width="2.21875" customWidth="1"/>
-    <col min="26" max="26" width="2.77734375" customWidth="1"/>
-    <col min="27" max="45" width="2.21875" customWidth="1"/>
-    <col min="46" max="46" width="2.5546875" customWidth="1"/>
-    <col min="47" max="68" width="2.21875" customWidth="1"/>
-    <col min="76" max="84" width="3.5546875" customWidth="1"/>
-    <col min="85" max="85" width="17.5546875" customWidth="1"/>
-    <col min="86" max="94" width="3.5546875" customWidth="1"/>
-    <col min="95" max="95" width="17.77734375" customWidth="1"/>
-    <col min="96" max="104" width="3.5546875" customWidth="1"/>
+    <col min="8" max="10" width="3.81640625" customWidth="1"/>
+    <col min="11" max="11" width="3.1796875" customWidth="1"/>
+    <col min="12" max="15" width="2.453125" customWidth="1"/>
+    <col min="16" max="25" width="2.1796875" customWidth="1"/>
+    <col min="26" max="26" width="2.81640625" customWidth="1"/>
+    <col min="27" max="45" width="2.1796875" customWidth="1"/>
+    <col min="46" max="46" width="2.54296875" customWidth="1"/>
+    <col min="47" max="68" width="2.1796875" customWidth="1"/>
+    <col min="76" max="84" width="3.54296875" customWidth="1"/>
+    <col min="85" max="85" width="17.54296875" customWidth="1"/>
+    <col min="86" max="94" width="3.54296875" customWidth="1"/>
+    <col min="95" max="95" width="17.81640625" customWidth="1"/>
+    <col min="96" max="104" width="3.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C1" s="20" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="71" spans="3:105" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:105" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="BX71" s="22" t="s">
         <v>103</v>
       </c>
@@ -5283,9 +6148,9 @@
       </c>
       <c r="DA71" s="22"/>
     </row>
-    <row r="72" spans="3:105" ht="3.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" spans="3:105" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="3:105" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:105" ht="3.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" spans="3:105" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="79" spans="3:105" x14ac:dyDescent="0.35">
       <c r="C79" t="s">
         <v>24</v>
       </c>
@@ -5293,7 +6158,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="3:105" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:105" x14ac:dyDescent="0.35">
       <c r="C80" t="s">
         <v>125</v>
       </c>
@@ -5301,7 +6166,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="81" spans="3:71" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:71" x14ac:dyDescent="0.35">
       <c r="C81" t="s">
         <v>121</v>
       </c>
@@ -5309,7 +6174,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="82" spans="3:71" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:71" x14ac:dyDescent="0.35">
       <c r="C82" t="s">
         <v>121</v>
       </c>
@@ -5317,8 +6182,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="89" spans="3:71" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" spans="3:71" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:71" ht="6" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="90" spans="3:71" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C90" t="s">
         <v>122</v>
       </c>
@@ -5326,7 +6191,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="91" spans="3:71" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:71" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C91" t="s">
         <v>123</v>
       </c>
@@ -5334,7 +6199,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="92" spans="3:71" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:71" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C92" t="s">
         <v>124</v>
       </c>
@@ -5342,8 +6207,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="94" spans="3:71" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" spans="3:71" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:71" ht="5.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="95" spans="3:71" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C95" t="s">
         <v>126</v>
       </c>
@@ -5351,7 +6216,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="96" spans="3:71" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:71" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C96" t="s">
         <v>126</v>
       </c>
@@ -5359,7 +6224,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="97" spans="3:71" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:71" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C97" t="s">
         <v>127</v>
       </c>
@@ -5367,7 +6232,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="98" spans="3:71" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:71" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C98" t="s">
         <v>127</v>
       </c>
@@ -5375,8 +6240,8 @@
         <v>127</v>
       </c>
     </row>
-    <row r="100" spans="3:71" ht="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" spans="3:71" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:71" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="101" spans="3:71" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C101" t="s">
         <v>126</v>
       </c>
@@ -5384,7 +6249,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="102" spans="3:71" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:71" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C102" t="s">
         <v>126</v>
       </c>
@@ -5392,7 +6257,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="103" spans="3:71" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:71" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C103" t="s">
         <v>128</v>
       </c>
@@ -5400,7 +6265,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="104" spans="3:71" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:71" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C104" t="s">
         <v>128</v>
       </c>
@@ -5408,8 +6273,8 @@
         <v>128</v>
       </c>
     </row>
-    <row r="108" spans="3:71" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" spans="3:71" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:71" ht="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="109" spans="3:71" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C109" s="21"/>
       <c r="D109" s="22" t="s">
         <v>62</v>
@@ -5597,7 +6462,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B9B565-78DA-42AC-A0D8-C5B614CDCC18}">
   <dimension ref="B1:AR47"/>
   <sheetViews>
@@ -5605,55 +6470,55 @@
       <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.81640625" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.77734375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.81640625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="5.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.77734375" style="15" customWidth="1"/>
+    <col min="8" max="8" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.81640625" style="15" customWidth="1"/>
     <col min="10" max="10" width="11" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.77734375" customWidth="1"/>
-    <col min="13" max="13" width="14.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.54296875" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.81640625" customWidth="1"/>
+    <col min="13" max="13" width="14.54296875" style="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.77734375" style="15" customWidth="1"/>
-    <col min="16" max="16" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.77734375" style="15" customWidth="1"/>
+    <col min="15" max="15" width="5.81640625" style="15" customWidth="1"/>
+    <col min="16" max="16" width="5.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.81640625" style="15" customWidth="1"/>
     <col min="21" max="21" width="11" style="17" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="2.77734375" customWidth="1"/>
-    <col min="24" max="24" width="14.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.54296875" style="17" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="2.81640625" customWidth="1"/>
+    <col min="24" max="24" width="14.54296875" style="15" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11" style="15" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.77734375" style="15" customWidth="1"/>
-    <col min="27" max="27" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5.77734375" style="15" customWidth="1"/>
+    <col min="26" max="26" width="5.81640625" style="15" customWidth="1"/>
+    <col min="27" max="27" width="5.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.81640625" style="15" customWidth="1"/>
     <col min="32" max="32" width="11" style="17" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.5546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="2.77734375" customWidth="1"/>
-    <col min="35" max="35" width="14.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.54296875" style="17" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="2.81640625" customWidth="1"/>
+    <col min="35" max="35" width="14.54296875" style="15" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="11" style="15" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="5.77734375" style="15" customWidth="1"/>
-    <col min="38" max="38" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="4.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="5.77734375" style="15" customWidth="1"/>
+    <col min="37" max="37" width="5.81640625" style="15" customWidth="1"/>
+    <col min="38" max="38" width="5.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="4.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="5.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="5.81640625" style="15" customWidth="1"/>
     <col min="43" max="43" width="11" style="17" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="14.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.54296875" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B1" s="15" t="s">
         <v>48</v>
       </c>
@@ -5727,8 +6592,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="2:44" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:44" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="2:44" x14ac:dyDescent="0.35">
       <c r="C3" s="15" t="s">
         <v>21</v>
       </c>
@@ -5782,7 +6647,7 @@
       <c r="AP3" s="18"/>
       <c r="AQ3" s="18"/>
     </row>
-    <row r="4" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:44" x14ac:dyDescent="0.35">
       <c r="C4" s="15" t="s">
         <v>22</v>
       </c>
@@ -5828,7 +6693,7 @@
       <c r="AP4" s="18"/>
       <c r="AQ4" s="18"/>
     </row>
-    <row r="5" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:44" x14ac:dyDescent="0.35">
       <c r="C5" s="15" t="s">
         <v>23</v>
       </c>
@@ -5874,7 +6739,7 @@
       <c r="AP5" s="18"/>
       <c r="AQ5" s="18"/>
     </row>
-    <row r="6" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:44" x14ac:dyDescent="0.35">
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="4" t="s">
@@ -5916,7 +6781,7 @@
       <c r="AP6" s="18"/>
       <c r="AQ6" s="18"/>
     </row>
-    <row r="7" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B7" s="15" t="str">
         <f>$G$41&amp;"-"&amp;H$32&amp;"-"&amp;D7</f>
         <v>2-0-0</v>
@@ -5990,7 +6855,7 @@
       <c r="AP7" s="18"/>
       <c r="AQ7" s="18"/>
     </row>
-    <row r="8" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B8" s="15" t="str">
         <f t="shared" ref="B8:B22" si="0">$G$41&amp;"-"&amp;H$32&amp;"-"&amp;D8</f>
         <v>2-0-1</v>
@@ -6093,7 +6958,7 @@
         <v>2-3-16</v>
       </c>
     </row>
-    <row r="9" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B9" s="15" t="str">
         <f t="shared" si="0"/>
         <v>2-0-2</v>
@@ -6196,7 +7061,7 @@
         <v>2-3-17</v>
       </c>
     </row>
-    <row r="10" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B10" s="15" t="str">
         <f t="shared" si="0"/>
         <v>2-0-3</v>
@@ -6299,7 +7164,7 @@
         <v>2-3-18</v>
       </c>
     </row>
-    <row r="11" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B11" s="15" t="str">
         <f t="shared" si="0"/>
         <v>2-0-0</v>
@@ -6402,7 +7267,7 @@
         <v>2-3-19</v>
       </c>
     </row>
-    <row r="12" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B12" s="15" t="str">
         <f t="shared" si="0"/>
         <v>2-0-1</v>
@@ -6513,7 +7378,7 @@
         <v>2-3-20</v>
       </c>
     </row>
-    <row r="13" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B13" s="15" t="str">
         <f t="shared" si="0"/>
         <v>2-0-2</v>
@@ -6616,7 +7481,7 @@
         <v>2-3-21</v>
       </c>
     </row>
-    <row r="14" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B14" s="15" t="str">
         <f t="shared" si="0"/>
         <v>2-0-3</v>
@@ -6719,7 +7584,7 @@
         <v>2-3-22</v>
       </c>
     </row>
-    <row r="15" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B15" s="15" t="str">
         <f t="shared" si="0"/>
         <v>2-0-8</v>
@@ -6822,7 +7687,7 @@
         <v>2-3-23</v>
       </c>
     </row>
-    <row r="16" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="str">
         <f t="shared" si="0"/>
         <v>2-0-9</v>
@@ -6925,7 +7790,7 @@
         <v>2-3-24</v>
       </c>
     </row>
-    <row r="17" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="str">
         <f t="shared" si="0"/>
         <v>2-0-10</v>
@@ -7028,7 +7893,7 @@
         <v>2-3-25</v>
       </c>
     </row>
-    <row r="18" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="str">
         <f t="shared" si="0"/>
         <v>2-0-11</v>
@@ -7131,7 +7996,7 @@
         <v>2-3-26</v>
       </c>
     </row>
-    <row r="19" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="str">
         <f t="shared" si="0"/>
         <v>2-0-4</v>
@@ -7234,7 +8099,7 @@
         <v>2-3-27</v>
       </c>
     </row>
-    <row r="20" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="str">
         <f t="shared" si="0"/>
         <v>2-0-5</v>
@@ -7337,7 +8202,7 @@
         <v>2-3-28</v>
       </c>
     </row>
-    <row r="21" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="str">
         <f t="shared" si="0"/>
         <v>2-0-6</v>
@@ -7440,7 +8305,7 @@
         <v>2-3-29</v>
       </c>
     </row>
-    <row r="22" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="str">
         <f t="shared" si="0"/>
         <v>2-0-7</v>
@@ -7543,7 +8408,7 @@
         <v>2-3-30</v>
       </c>
     </row>
-    <row r="23" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:44" x14ac:dyDescent="0.35">
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
       <c r="E23" s="3" t="s">
@@ -7614,7 +8479,7 @@
         <v>2-3-31</v>
       </c>
     </row>
-    <row r="24" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:44" x14ac:dyDescent="0.35">
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
       <c r="E24" s="3" t="s">
@@ -7656,7 +8521,7 @@
       <c r="AP24" s="18"/>
       <c r="AQ24" s="18"/>
     </row>
-    <row r="25" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:44" x14ac:dyDescent="0.35">
       <c r="E25" s="5"/>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
@@ -7674,7 +8539,7 @@
       <c r="AN25" s="13"/>
       <c r="AO25" s="10"/>
     </row>
-    <row r="26" spans="2:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E26" s="6" t="s">
         <v>22</v>
       </c>
@@ -7724,8 +8589,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:44" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:44" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="2:44" x14ac:dyDescent="0.35">
       <c r="E28" s="2" t="s">
         <v>21</v>
       </c>
@@ -7775,7 +8640,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:44" x14ac:dyDescent="0.35">
       <c r="E29" s="3"/>
       <c r="H29" s="8"/>
       <c r="P29" s="3"/>
@@ -7785,7 +8650,7 @@
       <c r="AL29" s="3"/>
       <c r="AO29" s="8"/>
     </row>
-    <row r="30" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:44" x14ac:dyDescent="0.35">
       <c r="E30" s="3"/>
       <c r="H30" s="8"/>
       <c r="P30" s="3"/>
@@ -7795,7 +8660,7 @@
       <c r="AL30" s="3"/>
       <c r="AO30" s="8"/>
     </row>
-    <row r="31" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:44" x14ac:dyDescent="0.35">
       <c r="E31" s="3"/>
       <c r="F31" s="36" t="s">
         <v>49</v>
@@ -7821,7 +8686,7 @@
       <c r="AN31" s="36"/>
       <c r="AO31" s="8"/>
     </row>
-    <row r="32" spans="2:44" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:44" x14ac:dyDescent="0.35">
       <c r="E32" s="3"/>
       <c r="F32" s="23" t="s">
         <v>129</v>
@@ -7854,7 +8719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:41" x14ac:dyDescent="0.35">
       <c r="E33" s="3"/>
       <c r="H33" s="8"/>
       <c r="P33" s="3"/>
@@ -7864,7 +8729,7 @@
       <c r="AL33" s="3"/>
       <c r="AO33" s="8"/>
     </row>
-    <row r="34" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E34" s="6"/>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
@@ -7882,7 +8747,7 @@
       <c r="AN34" s="14"/>
       <c r="AO34" s="11"/>
     </row>
-    <row r="35" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:41" x14ac:dyDescent="0.35">
       <c r="F35" s="2"/>
       <c r="G35" s="7"/>
       <c r="Q35" s="2"/>
@@ -7892,7 +8757,7 @@
       <c r="AM35" s="2"/>
       <c r="AN35" s="7"/>
     </row>
-    <row r="36" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:41" x14ac:dyDescent="0.35">
       <c r="F36" s="37" t="s">
         <v>26</v>
       </c>
@@ -7910,7 +8775,7 @@
       </c>
       <c r="AN36" s="38"/>
     </row>
-    <row r="37" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F37" s="6"/>
       <c r="G37" s="11"/>
       <c r="Q37" s="6"/>
@@ -7920,7 +8785,7 @@
       <c r="AM37" s="6"/>
       <c r="AN37" s="11"/>
     </row>
-    <row r="41" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:41" x14ac:dyDescent="0.35">
       <c r="E41" s="25" t="s">
         <v>130</v>
       </c>
@@ -7929,13 +8794,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:41" x14ac:dyDescent="0.35">
       <c r="B43" s="17"/>
       <c r="M43" s="17"/>
       <c r="X43" s="17"/>
       <c r="AI43" s="17"/>
     </row>
-    <row r="44" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:41" x14ac:dyDescent="0.35">
       <c r="C44" s="29" t="s">
         <v>132</v>
       </c>
@@ -7944,7 +8809,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:41" x14ac:dyDescent="0.35">
       <c r="C45" s="28" t="s">
         <v>133</v>
       </c>
@@ -7953,7 +8818,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:41" x14ac:dyDescent="0.35">
       <c r="C46" s="30" t="s">
         <v>134</v>
       </c>
@@ -7962,7 +8827,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="2:41" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:41" x14ac:dyDescent="0.35">
       <c r="C47" s="31" t="s">
         <v>136</v>
       </c>
@@ -7987,7 +8852,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D32C0C9B-B0E5-442A-BA1C-E3DC79065275}">
   <dimension ref="B1:K43"/>
   <sheetViews>
@@ -7995,20 +8860,20 @@
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="14" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="5.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.54296875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="5.81640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" style="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="17" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B1" s="15" t="s">
         <v>48</v>
       </c>
@@ -8028,8 +8893,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D3" s="15" t="s">
         <v>21</v>
       </c>
@@ -8043,7 +8908,7 @@
       </c>
       <c r="I3" s="18"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D4" s="15" t="s">
         <v>22</v>
       </c>
@@ -8055,7 +8920,7 @@
       </c>
       <c r="I4" s="18"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D5" s="15" t="s">
         <v>23</v>
       </c>
@@ -8067,7 +8932,7 @@
       </c>
       <c r="I5" s="18"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D6" s="16"/>
       <c r="E6" s="4" t="s">
         <v>20</v>
@@ -8077,7 +8942,7 @@
       </c>
       <c r="I6" s="18"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E7" s="3" t="s">
         <v>1</v>
       </c>
@@ -8086,7 +8951,7 @@
       </c>
       <c r="I7" s="18"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E8" s="3" t="s">
         <v>2</v>
       </c>
@@ -8094,7 +8959,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E9" s="3" t="s">
         <v>3</v>
       </c>
@@ -8102,7 +8967,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E10" s="3" t="s">
         <v>4</v>
       </c>
@@ -8110,7 +8975,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E11" s="3" t="s">
         <v>5</v>
       </c>
@@ -8118,7 +8983,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E12" s="3" t="s">
         <v>6</v>
       </c>
@@ -8130,7 +8995,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E13" s="3" t="s">
         <v>7</v>
       </c>
@@ -8138,7 +9003,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
@@ -8146,7 +9011,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E15" s="3" t="s">
         <v>9</v>
       </c>
@@ -8154,7 +9019,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E16" s="3" t="s">
         <v>10</v>
       </c>
@@ -8162,7 +9027,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:9" x14ac:dyDescent="0.35">
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
@@ -8170,7 +9035,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:9" x14ac:dyDescent="0.35">
       <c r="E18" s="3" t="s">
         <v>12</v>
       </c>
@@ -8178,7 +9043,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:9" x14ac:dyDescent="0.35">
       <c r="E19" s="3" t="s">
         <v>13</v>
       </c>
@@ -8186,7 +9051,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:9" x14ac:dyDescent="0.35">
       <c r="E20" s="3" t="s">
         <v>14</v>
       </c>
@@ -8194,7 +9059,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.35">
       <c r="E21" s="3" t="s">
         <v>15</v>
       </c>
@@ -8202,7 +9067,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:9" x14ac:dyDescent="0.35">
       <c r="E22" s="3" t="s">
         <v>16</v>
       </c>
@@ -8210,7 +9075,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D23" s="16"/>
       <c r="E23" s="3" t="s">
         <v>24</v>
@@ -8219,7 +9084,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D24" s="16"/>
       <c r="E24" s="3" t="s">
         <v>25</v>
@@ -8229,13 +9094,13 @@
       </c>
       <c r="I24" s="18"/>
     </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:9" x14ac:dyDescent="0.35">
       <c r="E25" s="5"/>
       <c r="F25" s="13"/>
       <c r="G25" s="13"/>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E26" s="6" t="s">
         <v>22</v>
       </c>
@@ -8249,8 +9114,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="4:9" x14ac:dyDescent="0.35">
       <c r="E28" s="2" t="s">
         <v>21</v>
       </c>
@@ -8264,15 +9129,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:9" x14ac:dyDescent="0.35">
       <c r="E29" s="3"/>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:9" x14ac:dyDescent="0.35">
       <c r="E30" s="3"/>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:9" x14ac:dyDescent="0.35">
       <c r="E31" s="3"/>
       <c r="F31" s="36" t="s">
         <v>49</v>
@@ -8280,35 +9145,35 @@
       <c r="G31" s="36"/>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:9" x14ac:dyDescent="0.35">
       <c r="E32" s="3"/>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
       <c r="E33" s="3"/>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E34" s="6"/>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
       <c r="H34" s="11"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F35" s="2"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F36" s="37" t="s">
         <v>26</v>
       </c>
       <c r="G36" s="38"/>
     </row>
-    <row r="37" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F37" s="6"/>
       <c r="G37" s="11"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B43" s="17" t="s">
         <v>50</v>
       </c>
@@ -8325,7 +9190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D4EE48-CA29-4AF5-8B5C-E4B4B1F31048}">
   <dimension ref="B28:B33"/>
   <sheetViews>
@@ -8333,29 +9198,29 @@
       <selection activeCell="B31" sqref="B31:B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>56</v>
       </c>
@@ -8366,7 +9231,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50ED5F98-D515-44A8-8822-0D97D946717D}">
   <dimension ref="B18:M19"/>
   <sheetViews>
@@ -8374,9 +9239,9 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="18" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="40" t="s">
         <v>52</v>
       </c>
@@ -8392,7 +9257,7 @@
       <c r="L18" s="40"/>
       <c r="M18" s="40"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B19" s="41" t="s">
         <v>51</v>
       </c>
@@ -8417,25 +9282,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2780EF84-6B31-4EAC-80B5-D5D7A18FF689}">
-  <dimension ref="B22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="22" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B22" s="19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/board Overviews.xlsx
+++ b/board Overviews.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a50f0f76735a0c6b/Documents/Pinball/PortalPinball-V4.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="144" documentId="8_{71A0D3BC-EF29-42BB-95C3-409B160B156F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5E399B0-9DA4-4946-BD42-0E44C23DC993}"/>
+  <xr:revisionPtr revIDLastSave="234" documentId="8_{71A0D3BC-EF29-42BB-95C3-409B160B156F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E384F42-8365-4784-A48D-136804DEE09E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="725" xr2:uid="{992D9940-FEE0-4AED-9001-DC6BE0040B0B}"/>
   </bookViews>
   <sheets>
-    <sheet name="LEDs" sheetId="10" r:id="rId1"/>
-    <sheet name="Cobrapin - Game Funtion" sheetId="8" r:id="rId2"/>
-    <sheet name="PSOC4200 - Game Function" sheetId="7" r:id="rId3"/>
-    <sheet name="---" sheetId="9" r:id="rId4"/>
-    <sheet name="Cobrapin - Doc" sheetId="5" r:id="rId5"/>
-    <sheet name="PSOC4200 - Config" sheetId="6" r:id="rId6"/>
-    <sheet name="PSOC4200 - Doc" sheetId="1" r:id="rId7"/>
-    <sheet name="Coil" sheetId="2" r:id="rId8"/>
-    <sheet name="Switch" sheetId="4" r:id="rId9"/>
-    <sheet name="Incand" sheetId="3" r:id="rId10"/>
+    <sheet name="Modes" sheetId="11" r:id="rId1"/>
+    <sheet name="LEDs" sheetId="10" r:id="rId2"/>
+    <sheet name="Cobrapin - Game Funtion" sheetId="8" r:id="rId3"/>
+    <sheet name="PSOC4200 - Game Function" sheetId="7" r:id="rId4"/>
+    <sheet name="---" sheetId="9" r:id="rId5"/>
+    <sheet name="Cobrapin - Doc" sheetId="5" r:id="rId6"/>
+    <sheet name="PSOC4200 - Config" sheetId="6" r:id="rId7"/>
+    <sheet name="PSOC4200 - Doc" sheetId="1" r:id="rId8"/>
+    <sheet name="Coil" sheetId="2" r:id="rId9"/>
+    <sheet name="Switch" sheetId="4" r:id="rId10"/>
+    <sheet name="Incand" sheetId="3" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="298">
   <si>
     <t>PSOC4200</t>
   </si>
@@ -604,12 +605,6 @@
     <t>s_bottomlane5 - not on field</t>
   </si>
   <si>
-    <t>s_Other01</t>
-  </si>
-  <si>
-    <t>s_Other02</t>
-  </si>
-  <si>
     <t>s_Other03</t>
   </si>
   <si>
@@ -905,6 +900,108 @@
   </si>
   <si>
     <t>target-m3</t>
+  </si>
+  <si>
+    <t>TopLane</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Step #</t>
+  </si>
+  <si>
+    <t>Step type</t>
+  </si>
+  <si>
+    <t>Step switches</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>Step lights</t>
+  </si>
+  <si>
+    <t>led-toplane1</t>
+  </si>
+  <si>
+    <t>led-toplane2</t>
+  </si>
+  <si>
+    <t>led-toplane3</t>
+  </si>
+  <si>
+    <t>Rules</t>
+  </si>
+  <si>
+    <t>BottomLane</t>
+  </si>
+  <si>
+    <t>led-lane-b1</t>
+  </si>
+  <si>
+    <t>led-lane-b2</t>
+  </si>
+  <si>
+    <t>led-lane-b3</t>
+  </si>
+  <si>
+    <t>led-lane-b4</t>
+  </si>
+  <si>
+    <t>Shots</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>Sling Combo</t>
+  </si>
+  <si>
+    <t>s_sling_right</t>
+  </si>
+  <si>
+    <t>s_sling_left</t>
+  </si>
+  <si>
+    <t>s_popbumper_1</t>
+  </si>
+  <si>
+    <t>s_popbumper_2</t>
+  </si>
+  <si>
+    <t>s_popbumper_3</t>
+  </si>
+  <si>
+    <t>led-sling-r</t>
+  </si>
+  <si>
+    <t>led-sling-l</t>
+  </si>
+  <si>
+    <t>Ballsave</t>
+  </si>
+  <si>
+    <t>s_orbit-r</t>
+  </si>
+  <si>
+    <t>s_orbit-l</t>
+  </si>
+  <si>
+    <t>timer</t>
+  </si>
+  <si>
+    <t>led-orbit-r</t>
+  </si>
+  <si>
+    <t>led-ramp-r</t>
+  </si>
+  <si>
+    <t>Orbit right</t>
+  </si>
+  <si>
+    <t>Orbit left</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1230,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1246,6 +1343,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1878,6 +1976,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -2174,600 +2276,313 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E848134-5BBE-40A2-B435-5EF431EA961E}">
-  <dimension ref="B1:E42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{504015E5-CEAB-419C-A33C-D2331DC4ED29}">
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.54296875" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.81640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="1"/>
+    <col min="4" max="7" width="10.6328125" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>265</v>
+      </c>
       <c r="B1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C1" t="s">
-        <v>184</v>
+        <v>280</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="D1" t="s">
-        <v>185</v>
+        <v>267</v>
       </c>
       <c r="E1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B2" t="str">
-        <f>"led-"&amp;C2</f>
-        <v>led-launch</v>
-      </c>
-      <c r="C2" t="s">
-        <v>149</v>
+        <v>268</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G1" t="s">
+        <v>267</v>
+      </c>
+      <c r="H1" t="s">
+        <v>268</v>
+      </c>
+      <c r="I1" t="s">
+        <v>270</v>
+      </c>
+      <c r="J1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>269</v>
       </c>
       <c r="E2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B3" t="str">
-        <f t="shared" ref="B3:B42" si="0">"led-"&amp;C3</f>
-        <v>led-save</v>
-      </c>
-      <c r="C3" t="s">
-        <v>195</v>
+        <v>157</v>
+      </c>
+      <c r="I2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C3" s="1">
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>269</v>
       </c>
       <c r="E3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v>led-lane-b1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>212</v>
+        <v>158</v>
+      </c>
+      <c r="I3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C4" s="1">
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>269</v>
       </c>
       <c r="E4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B5" t="str">
-        <f t="shared" si="0"/>
-        <v>led-lane-b2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>213</v>
-      </c>
-      <c r="D5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>led-sling-r</v>
-      </c>
-      <c r="C6" t="s">
-        <v>214</v>
+        <v>159</v>
+      </c>
+      <c r="I4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>275</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>269</v>
       </c>
       <c r="E6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>led-sling-l</v>
-      </c>
-      <c r="C7" t="s">
-        <v>215</v>
+        <v>160</v>
+      </c>
+      <c r="I6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C7" s="1">
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>113</v>
+        <v>269</v>
       </c>
       <c r="E7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>led-lane-b3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>216</v>
+        <v>161</v>
+      </c>
+      <c r="I7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C8" s="1">
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>269</v>
       </c>
       <c r="E8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>led-lane-b4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>217</v>
+        <v>162</v>
+      </c>
+      <c r="I8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C9" s="1">
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>269</v>
       </c>
       <c r="E9" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>led-target-r1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>218</v>
-      </c>
-      <c r="D10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B11" t="str">
-        <f t="shared" si="0"/>
-        <v>led-target-r2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>219</v>
+        <v>163</v>
+      </c>
+      <c r="I9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>282</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>269</v>
       </c>
       <c r="E11" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B12" t="str">
-        <f t="shared" si="0"/>
-        <v>led-orbit-r</v>
-      </c>
-      <c r="C12" t="s">
-        <v>221</v>
+        <v>283</v>
+      </c>
+      <c r="I11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C12" s="1">
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>101</v>
+        <v>269</v>
       </c>
       <c r="E12" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B13" t="str">
-        <f t="shared" si="0"/>
-        <v>led-ramp-r</v>
-      </c>
-      <c r="C13" t="s">
-        <v>227</v>
-      </c>
-      <c r="D13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B14" t="str">
-        <f t="shared" si="0"/>
-        <v>led-target-m1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>262</v>
+        <v>284</v>
+      </c>
+      <c r="I12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>296</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>107</v>
-      </c>
-      <c r="E14" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B15" t="str">
-        <f t="shared" si="0"/>
-        <v>led-portal-r</v>
-      </c>
-      <c r="C15" t="s">
-        <v>229</v>
-      </c>
-      <c r="D15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B16" t="str">
-        <f t="shared" si="0"/>
-        <v>led-target-m2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>263</v>
+        <v>148</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>291</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>293</v>
+      </c>
+      <c r="H14" s="42" t="s">
+        <v>292</v>
+      </c>
+      <c r="I14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E15" s="42"/>
+      <c r="H15" s="42"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
-      </c>
-      <c r="E16" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17" t="str">
-        <f t="shared" si="0"/>
-        <v>led-bumper-1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>233</v>
-      </c>
-      <c r="D17" t="s">
-        <v>110</v>
-      </c>
-      <c r="E17" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B18" t="str">
-        <f t="shared" si="0"/>
-        <v>led-bumper-2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>234</v>
-      </c>
-      <c r="D18" t="s">
-        <v>92</v>
-      </c>
-      <c r="E18" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B19" t="str">
-        <f t="shared" si="0"/>
-        <v>led-bumper-3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>235</v>
-      </c>
-      <c r="D19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B20" t="str">
-        <f t="shared" si="0"/>
-        <v>led-toplane1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>198</v>
-      </c>
-      <c r="D20" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B21" t="str">
-        <f t="shared" si="0"/>
-        <v>led-toplane2</v>
-      </c>
-      <c r="C21" t="s">
-        <v>199</v>
-      </c>
-      <c r="D21" t="s">
-        <v>95</v>
-      </c>
-      <c r="E21" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B22" t="str">
-        <f t="shared" si="0"/>
-        <v>led-toplane3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>200</v>
-      </c>
-      <c r="D22" t="s">
-        <v>186</v>
-      </c>
-      <c r="E22" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B23" t="str">
-        <f t="shared" si="0"/>
-        <v>led-orbit-t</v>
-      </c>
-      <c r="C23" t="s">
-        <v>225</v>
-      </c>
-      <c r="D23" t="s">
-        <v>187</v>
-      </c>
-      <c r="E23" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B24" t="str">
-        <f t="shared" si="0"/>
-        <v>led-target-e1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>244</v>
-      </c>
-      <c r="D24" t="s">
-        <v>188</v>
-      </c>
-      <c r="E24" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B25" t="str">
-        <f t="shared" si="0"/>
-        <v>led-target-e2</v>
-      </c>
-      <c r="C25" t="s">
-        <v>245</v>
-      </c>
-      <c r="D25" t="s">
-        <v>189</v>
-      </c>
-      <c r="E25" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B26" t="str">
-        <f t="shared" si="0"/>
-        <v>led-aerial</v>
-      </c>
-      <c r="C26" t="s">
-        <v>247</v>
-      </c>
-      <c r="D26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E26" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B27" t="str">
-        <f t="shared" si="0"/>
-        <v>led-target-m3</v>
-      </c>
-      <c r="C27" t="s">
-        <v>265</v>
-      </c>
-      <c r="D27" t="s">
-        <v>97</v>
-      </c>
-      <c r="E27" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B28" t="str">
-        <f t="shared" si="0"/>
-        <v>led-portal-m</v>
-      </c>
-      <c r="C28" t="s">
-        <v>249</v>
-      </c>
-      <c r="D28" t="s">
-        <v>98</v>
-      </c>
-      <c r="E28" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B29" t="str">
-        <f t="shared" si="0"/>
-        <v>led-target-m4</v>
-      </c>
-      <c r="C29" t="s">
-        <v>264</v>
-      </c>
-      <c r="D29" t="s">
-        <v>99</v>
-      </c>
-      <c r="E29" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B30" t="str">
-        <f t="shared" si="0"/>
-        <v>led-ramp-l</v>
-      </c>
-      <c r="C30" t="s">
-        <v>251</v>
-      </c>
-      <c r="D30" t="s">
-        <v>190</v>
-      </c>
-      <c r="E30" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B31" t="str">
-        <f t="shared" si="0"/>
-        <v>led-orbit-l</v>
-      </c>
-      <c r="C31" t="s">
-        <v>223</v>
-      </c>
-      <c r="D31" t="s">
-        <v>191</v>
-      </c>
-      <c r="E31" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B32" t="str">
-        <f t="shared" si="0"/>
-        <v>led-button</v>
-      </c>
-      <c r="C32" t="s">
-        <v>252</v>
-      </c>
-      <c r="D32" t="s">
-        <v>208</v>
-      </c>
-      <c r="E32" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B33" t="str">
-        <f t="shared" si="0"/>
-        <v>led-</v>
-      </c>
-      <c r="D33" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B34" t="str">
-        <f t="shared" si="0"/>
-        <v>led-</v>
-      </c>
-      <c r="D34" t="s">
-        <v>236</v>
-      </c>
-      <c r="E34" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B35" t="str">
-        <f t="shared" si="0"/>
-        <v>led-</v>
-      </c>
-      <c r="D35" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B36" t="str">
-        <f t="shared" si="0"/>
-        <v>led-</v>
-      </c>
-      <c r="D36" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B37" t="str">
-        <f t="shared" si="0"/>
-        <v>led-</v>
-      </c>
-      <c r="D37" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B38" t="str">
-        <f t="shared" si="0"/>
-        <v>led-</v>
-      </c>
-      <c r="D38" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B39" t="str">
-        <f t="shared" si="0"/>
-        <v>led-</v>
-      </c>
-      <c r="D39" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B40" t="str">
-        <f t="shared" si="0"/>
-        <v>led-</v>
-      </c>
-      <c r="D40" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B41" t="str">
-        <f t="shared" si="0"/>
-        <v>led-</v>
-      </c>
-      <c r="D41" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B42" t="str">
-        <f t="shared" si="0"/>
-        <v>led-</v>
-      </c>
-      <c r="D42" t="s">
-        <v>261</v>
+        <v>148</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>292</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>293</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>291</v>
+      </c>
+      <c r="I16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50ED5F98-D515-44A8-8822-0D97D946717D}">
+  <dimension ref="B18:M19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="18" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B19" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B18:M18"/>
+    <mergeCell ref="B19:M19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2780EF84-6B31-4EAC-80B5-D5D7A18FF689}">
   <dimension ref="B22"/>
   <sheetViews>
@@ -2789,6 +2604,600 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E848134-5BBE-40A2-B435-5EF431EA961E}">
+  <dimension ref="B1:E42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="18.54296875" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B2" t="str">
+        <f>"led-"&amp;C2</f>
+        <v>led-launch</v>
+      </c>
+      <c r="C2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B42" si="0">"led-"&amp;C3</f>
+        <v>led-save</v>
+      </c>
+      <c r="C3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>led-lane-b1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>led-lane-b2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>led-sling-r</v>
+      </c>
+      <c r="C6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>led-sling-l</v>
+      </c>
+      <c r="C7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>led-lane-b3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>led-lane-b4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>215</v>
+      </c>
+      <c r="D9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>led-target-r1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>led-target-r2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>led-orbit-r</v>
+      </c>
+      <c r="C12" t="s">
+        <v>219</v>
+      </c>
+      <c r="D12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>led-ramp-r</v>
+      </c>
+      <c r="C13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>led-target-m1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>260</v>
+      </c>
+      <c r="D14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>led-portal-r</v>
+      </c>
+      <c r="C15" t="s">
+        <v>227</v>
+      </c>
+      <c r="D15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>led-target-m2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>261</v>
+      </c>
+      <c r="D16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>led-bumper-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>231</v>
+      </c>
+      <c r="D17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>led-bumper-2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>232</v>
+      </c>
+      <c r="D18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>led-bumper-3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>233</v>
+      </c>
+      <c r="D19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>led-toplane1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>196</v>
+      </c>
+      <c r="D20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>led-toplane2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>197</v>
+      </c>
+      <c r="D21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>led-toplane3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>198</v>
+      </c>
+      <c r="D22" t="s">
+        <v>184</v>
+      </c>
+      <c r="E22" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>led-orbit-t</v>
+      </c>
+      <c r="C23" t="s">
+        <v>223</v>
+      </c>
+      <c r="D23" t="s">
+        <v>185</v>
+      </c>
+      <c r="E23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>led-target-e1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>242</v>
+      </c>
+      <c r="D24" t="s">
+        <v>186</v>
+      </c>
+      <c r="E24" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>led-target-e2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>243</v>
+      </c>
+      <c r="D25" t="s">
+        <v>187</v>
+      </c>
+      <c r="E25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>led-aerial</v>
+      </c>
+      <c r="C26" t="s">
+        <v>245</v>
+      </c>
+      <c r="D26" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>led-target-m3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D27" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>led-portal-m</v>
+      </c>
+      <c r="C28" t="s">
+        <v>247</v>
+      </c>
+      <c r="D28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>led-target-m4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>262</v>
+      </c>
+      <c r="D29" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>led-ramp-l</v>
+      </c>
+      <c r="C30" t="s">
+        <v>249</v>
+      </c>
+      <c r="D30" t="s">
+        <v>188</v>
+      </c>
+      <c r="E30" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>led-orbit-l</v>
+      </c>
+      <c r="C31" t="s">
+        <v>221</v>
+      </c>
+      <c r="D31" t="s">
+        <v>189</v>
+      </c>
+      <c r="E31" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>led-button</v>
+      </c>
+      <c r="C32" t="s">
+        <v>250</v>
+      </c>
+      <c r="D32" t="s">
+        <v>206</v>
+      </c>
+      <c r="E32" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>led-</v>
+      </c>
+      <c r="D33" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>led-</v>
+      </c>
+      <c r="D34" t="s">
+        <v>234</v>
+      </c>
+      <c r="E34" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>led-</v>
+      </c>
+      <c r="D35" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>led-</v>
+      </c>
+      <c r="D36" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>led-</v>
+      </c>
+      <c r="D37" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>led-</v>
+      </c>
+      <c r="D38" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>led-</v>
+      </c>
+      <c r="D39" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>led-</v>
+      </c>
+      <c r="D40" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>led-</v>
+      </c>
+      <c r="D41" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>led-</v>
+      </c>
+      <c r="D42" t="s">
+        <v>259</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64143CA7-704E-4C2D-9785-F0A4C7EA94D7}">
   <dimension ref="B2:DA44"/>
   <sheetViews>
@@ -2820,12 +3229,12 @@
   <sheetData>
     <row r="2" spans="2:105" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="2:105" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="2:105" ht="164.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3219,12 +3628,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896D7F36-299A-4BDE-822D-D1A9A709E1EC}">
   <dimension ref="B1:AZ47"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="M19" sqref="M19:M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3648,7 +4057,7 @@
     </row>
     <row r="7" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B7" s="33" t="s">
-        <v>138</v>
+        <v>283</v>
       </c>
       <c r="C7" s="15" t="str">
         <f>$H$41&amp;"-"&amp;I$32&amp;"-"&amp;E7</f>
@@ -3736,7 +4145,7 @@
     </row>
     <row r="8" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B8" s="33" t="s">
-        <v>139</v>
+        <v>284</v>
       </c>
       <c r="C8" s="15" t="str">
         <f t="shared" ref="C8:C22" si="0">$H$41&amp;"-"&amp;I$32&amp;"-"&amp;E8</f>
@@ -4577,7 +4986,7 @@
     </row>
     <row r="15" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B15" s="33" t="s">
-        <v>142</v>
+        <v>285</v>
       </c>
       <c r="C15" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4638,7 +5047,7 @@
         <v>2-1-23</v>
       </c>
       <c r="Z15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AC15" s="15" t="str">
         <f t="shared" si="2"/>
@@ -4696,7 +5105,7 @@
     </row>
     <row r="16" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B16" s="33" t="s">
-        <v>143</v>
+        <v>286</v>
       </c>
       <c r="C16" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4757,7 +5166,7 @@
         <v>2-1-24</v>
       </c>
       <c r="Z16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AC16" s="15" t="str">
         <f t="shared" si="2"/>
@@ -4815,7 +5224,7 @@
     </row>
     <row r="17" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B17" s="33" t="s">
-        <v>144</v>
+        <v>287</v>
       </c>
       <c r="C17" s="15" t="str">
         <f t="shared" si="0"/>
@@ -4876,7 +5285,7 @@
         <v>2-1-25</v>
       </c>
       <c r="Z17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AC17" s="15" t="str">
         <f t="shared" si="2"/>
@@ -4995,7 +5404,7 @@
         <v>2-1-26</v>
       </c>
       <c r="Z18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AC18" s="15" t="str">
         <f t="shared" si="2"/>
@@ -5081,8 +5490,8 @@
         <f t="shared" si="4"/>
         <v>2-0-27</v>
       </c>
-      <c r="M19" s="34" t="s">
-        <v>165</v>
+      <c r="M19" s="42" t="s">
+        <v>291</v>
       </c>
       <c r="O19" s="32" t="s">
         <v>145</v>
@@ -5114,7 +5523,7 @@
         <v>2-1-27</v>
       </c>
       <c r="Z19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AC19" s="15" t="str">
         <f t="shared" si="2"/>
@@ -5200,8 +5609,8 @@
         <f t="shared" si="4"/>
         <v>2-0-28</v>
       </c>
-      <c r="M20" s="34" t="s">
-        <v>166</v>
+      <c r="M20" s="42" t="s">
+        <v>292</v>
       </c>
       <c r="O20" s="32" t="s">
         <v>145</v>
@@ -5233,7 +5642,7 @@
         <v>2-1-28</v>
       </c>
       <c r="Z20" s="34" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AC20" s="15" t="str">
         <f t="shared" si="2"/>
@@ -5320,7 +5729,7 @@
         <v>2-0-29</v>
       </c>
       <c r="M21" s="34" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O21" s="32" t="s">
         <v>145</v>
@@ -5352,7 +5761,7 @@
         <v>2-1-29</v>
       </c>
       <c r="Z21" s="34" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AC21" s="15" t="str">
         <f t="shared" si="2"/>
@@ -5410,7 +5819,7 @@
     </row>
     <row r="22" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C22" s="15" t="str">
         <f t="shared" si="0"/>
@@ -5439,7 +5848,7 @@
         <v>2-0-30</v>
       </c>
       <c r="M22" s="34" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O22" s="32" t="s">
         <v>145</v>
@@ -5471,7 +5880,7 @@
         <v>2-1-30</v>
       </c>
       <c r="Z22" s="34" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AC22" s="15" t="str">
         <f t="shared" si="2"/>
@@ -5549,7 +5958,7 @@
         <v>2-0-31</v>
       </c>
       <c r="M23" s="34" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O23" s="16"/>
       <c r="P23" s="16"/>
@@ -5572,7 +5981,7 @@
         <v>2-1-31</v>
       </c>
       <c r="Z23" s="34" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AB23" s="16"/>
       <c r="AC23" s="16"/>
@@ -5816,7 +6225,7 @@
     <row r="31" spans="2:52" x14ac:dyDescent="0.35">
       <c r="F31" s="3"/>
       <c r="G31" s="36" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H31" s="36"/>
       <c r="I31" s="8"/>
@@ -6008,7 +6417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92BC837E-B245-42A3-8F6D-5B1D3622F670}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6022,7 +6431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12CF9BA9-790E-4443-8CE6-3586A1333188}">
   <dimension ref="C1:DA109"/>
   <sheetViews>
@@ -6462,7 +6871,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B9B565-78DA-42AC-A0D8-C5B614CDCC18}">
   <dimension ref="B1:AR47"/>
   <sheetViews>
@@ -8852,7 +9261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D32C0C9B-B0E5-442A-BA1C-E3DC79065275}">
   <dimension ref="B1:K43"/>
   <sheetViews>
@@ -9190,7 +9599,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D4EE48-CA29-4AF5-8B5C-E4B4B1F31048}">
   <dimension ref="B28:B33"/>
   <sheetViews>
@@ -9229,57 +9638,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50ED5F98-D515-44A8-8822-0D97D946717D}">
-  <dimension ref="B18:M19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="18" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B19" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B18:M18"/>
-    <mergeCell ref="B19:M19"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/board Overviews.xlsx
+++ b/board Overviews.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a50f0f76735a0c6b/Documents/Pinball/PortalPinball-V4.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="234" documentId="8_{71A0D3BC-EF29-42BB-95C3-409B160B156F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E384F42-8365-4784-A48D-136804DEE09E}"/>
+  <xr:revisionPtr revIDLastSave="403" documentId="8_{71A0D3BC-EF29-42BB-95C3-409B160B156F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F6ED302-52F2-4536-928E-773AA60AE409}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="725" xr2:uid="{992D9940-FEE0-4AED-9001-DC6BE0040B0B}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="340">
   <si>
     <t>PSOC4200</t>
   </si>
@@ -866,9 +866,6 @@
     <t>big button</t>
   </si>
   <si>
-    <t>&lt;modes&gt;</t>
-  </si>
-  <si>
     <t>target middle 1</t>
   </si>
   <si>
@@ -1002,6 +999,135 @@
   </si>
   <si>
     <t>Orbit left</t>
+  </si>
+  <si>
+    <t>Launch</t>
+  </si>
+  <si>
+    <t>Orbit closed</t>
+  </si>
+  <si>
+    <t>skillshot</t>
+  </si>
+  <si>
+    <t>Portal targets</t>
+  </si>
+  <si>
+    <t>led-target-r1</t>
+  </si>
+  <si>
+    <t>led-target-r2</t>
+  </si>
+  <si>
+    <t>led-target-m1</t>
+  </si>
+  <si>
+    <t>led-target-m2</t>
+  </si>
+  <si>
+    <t>led-target-m3</t>
+  </si>
+  <si>
+    <t>led-target-m4</t>
+  </si>
+  <si>
+    <t>extra target between buttun and insinerator</t>
+  </si>
+  <si>
+    <t>target-l1</t>
+  </si>
+  <si>
+    <t>insinerator</t>
+  </si>
+  <si>
+    <t>s-target-r1</t>
+  </si>
+  <si>
+    <t>s-target-r2</t>
+  </si>
+  <si>
+    <t>s-target-m1</t>
+  </si>
+  <si>
+    <t>s-target-m2</t>
+  </si>
+  <si>
+    <t>s-target-m3</t>
+  </si>
+  <si>
+    <t>s-target-m4</t>
+  </si>
+  <si>
+    <t>s-target-l1</t>
+  </si>
+  <si>
+    <t>in led config</t>
+  </si>
+  <si>
+    <t>shot in code</t>
+  </si>
+  <si>
+    <t>shot in xl</t>
+  </si>
+  <si>
+    <t>not configured</t>
+  </si>
+  <si>
+    <t>not in shot yet</t>
+  </si>
+  <si>
+    <t>targets complet: spells portal</t>
+  </si>
+  <si>
+    <t>Spels blue</t>
+  </si>
+  <si>
+    <t>Top Lanes Complete: spels: orange when hit 2x</t>
+  </si>
+  <si>
+    <t>same 2x</t>
+  </si>
+  <si>
+    <t>blinking</t>
+  </si>
+  <si>
+    <t>Step 2 lights</t>
+  </si>
+  <si>
+    <t>led-bumper-1</t>
+  </si>
+  <si>
+    <t>led-bumper-2</t>
+  </si>
+  <si>
+    <t>led-bumper-3</t>
+  </si>
+  <si>
+    <t>led-ramp-l</t>
+  </si>
+  <si>
+    <t>bumper</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>count to 100</t>
+  </si>
+  <si>
+    <t>right ramp</t>
+  </si>
+  <si>
+    <t>missing switches</t>
+  </si>
+  <si>
+    <t>led-launch</t>
+  </si>
+  <si>
+    <t>led-save</t>
+  </si>
+  <si>
+    <t>led-orbit-t</t>
   </si>
 </sst>
 </file>
@@ -2277,194 +2403,244 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{504015E5-CEAB-419C-A33C-D2331DC4ED29}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="15.6328125" customWidth="1"/>
     <col min="3" max="3" width="8.7265625" style="1"/>
-    <col min="4" max="7" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" customWidth="1"/>
+    <col min="5" max="5" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6328125" customWidth="1"/>
     <col min="8" max="8" width="14.453125" customWidth="1"/>
-    <col min="9" max="9" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.6328125" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" customWidth="1"/>
+    <col min="16" max="16" width="14.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I1" t="s">
+        <v>269</v>
+      </c>
+      <c r="J1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>280</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E1" t="s">
-        <v>268</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="G1" t="s">
-        <v>267</v>
-      </c>
-      <c r="H1" t="s">
-        <v>268</v>
-      </c>
-      <c r="I1" t="s">
-        <v>270</v>
-      </c>
-      <c r="J1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>281</v>
-      </c>
       <c r="B2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E2" t="s">
         <v>157</v>
       </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>268</v>
+      </c>
+      <c r="H2" t="s">
+        <v>325</v>
+      </c>
       <c r="I2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+        <v>270</v>
+      </c>
+      <c r="J2" t="s">
+        <v>326</v>
+      </c>
+      <c r="K2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E3" t="s">
         <v>158</v>
       </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>268</v>
+      </c>
+      <c r="H3" t="s">
+        <v>325</v>
+      </c>
       <c r="I3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+        <v>271</v>
+      </c>
+      <c r="J3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E4" t="s">
         <v>159</v>
       </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>268</v>
+      </c>
+      <c r="H4" t="s">
+        <v>325</v>
+      </c>
       <c r="I4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+        <v>272</v>
+      </c>
+      <c r="J4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E6" t="s">
         <v>160</v>
       </c>
       <c r="I6" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+        <v>275</v>
+      </c>
+      <c r="K6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E7" t="s">
         <v>161</v>
       </c>
       <c r="I7" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C8" s="1">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E8" t="s">
         <v>162</v>
       </c>
       <c r="I8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E9" t="s">
         <v>163</v>
       </c>
       <c r="I9" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I11" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C12" s="1">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I12" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -2472,29 +2648,28 @@
       <c r="D14" t="s">
         <v>148</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="E14" t="s">
+        <v>290</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>292</v>
+      </c>
+      <c r="H14" t="s">
         <v>291</v>
       </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="I14" t="s">
         <v>293</v>
       </c>
-      <c r="H14" s="42" t="s">
-        <v>292</v>
-      </c>
-      <c r="I14" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E15" s="42"/>
-      <c r="H15" s="42"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -2502,25 +2677,247 @@
       <c r="D16" t="s">
         <v>148</v>
       </c>
-      <c r="E16" s="42" t="s">
+      <c r="E16" t="s">
+        <v>291</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
         <v>292</v>
       </c>
-      <c r="F16">
+      <c r="H16" t="s">
+        <v>290</v>
+      </c>
+      <c r="I16" t="s">
+        <v>294</v>
+      </c>
+      <c r="J16" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>300</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>268</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>310</v>
+      </c>
+      <c r="I18" t="s">
+        <v>301</v>
+      </c>
+      <c r="K18" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>268</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>311</v>
+      </c>
+      <c r="I19" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>268</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>312</v>
+      </c>
+      <c r="I20" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>268</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>313</v>
+      </c>
+      <c r="I21" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>268</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>314</v>
+      </c>
+      <c r="I22" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>268</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>315</v>
+      </c>
+      <c r="I23" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>332</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>333</v>
+      </c>
+      <c r="E25" t="s">
+        <v>284</v>
+      </c>
+      <c r="I25" t="s">
+        <v>328</v>
+      </c>
+      <c r="K25" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>333</v>
+      </c>
+      <c r="E26" t="s">
+        <v>285</v>
+      </c>
+      <c r="I26" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>333</v>
+      </c>
+      <c r="E27" t="s">
+        <v>286</v>
+      </c>
+      <c r="I27" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>335</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>148</v>
+      </c>
+      <c r="E29" s="32"/>
+      <c r="F29" s="1">
         <v>2</v>
       </c>
-      <c r="G16" t="s">
-        <v>293</v>
-      </c>
-      <c r="H16" s="42" t="s">
-        <v>291</v>
-      </c>
-      <c r="I16" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>290</v>
+      <c r="G29" t="s">
+        <v>292</v>
+      </c>
+      <c r="H29" s="32"/>
+      <c r="I29" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>248</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>148</v>
+      </c>
+      <c r="E31" s="32"/>
+      <c r="F31" s="1">
+        <v>2</v>
+      </c>
+      <c r="G31" t="s">
+        <v>292</v>
+      </c>
+      <c r="H31" s="32"/>
+      <c r="I31" t="s">
+        <v>331</v>
+      </c>
+      <c r="P31" s="32" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>297</v>
+      </c>
+      <c r="B35" t="s">
+        <v>298</v>
+      </c>
+      <c r="E35" s="32"/>
+      <c r="I35" s="23" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I36" s="23"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>299</v>
+      </c>
+      <c r="E37" s="32"/>
+      <c r="I37" s="23" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I38" s="23"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>289</v>
+      </c>
+      <c r="B39" t="s">
+        <v>289</v>
+      </c>
+      <c r="E39" s="32"/>
+      <c r="I39" s="23" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -2605,20 +3002,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E848134-5BBE-40A2-B435-5EF431EA961E}">
-  <dimension ref="B1:E42"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="18.54296875" customWidth="1"/>
     <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.81640625" customWidth="1"/>
+    <col min="5" max="5" width="38.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>181</v>
       </c>
@@ -2631,8 +3029,17 @@
       <c r="E1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" t="str">
         <f>"led-"&amp;C2</f>
         <v>led-launch</v>
@@ -2646,8 +3053,14 @@
       <c r="E2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" t="str">
         <f t="shared" ref="B3:B42" si="0">"led-"&amp;C3</f>
         <v>led-save</v>
@@ -2661,8 +3074,14 @@
       <c r="E3" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" t="str">
         <f t="shared" si="0"/>
         <v>led-lane-b1</v>
@@ -2676,8 +3095,14 @@
       <c r="E4" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" t="str">
         <f t="shared" si="0"/>
         <v>led-lane-b2</v>
@@ -2691,8 +3116,14 @@
       <c r="E5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" t="str">
         <f t="shared" si="0"/>
         <v>led-sling-r</v>
@@ -2706,8 +3137,14 @@
       <c r="E6" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" t="str">
         <f t="shared" si="0"/>
         <v>led-sling-l</v>
@@ -2721,8 +3158,14 @@
       <c r="E7" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" t="str">
         <f t="shared" si="0"/>
         <v>led-lane-b3</v>
@@ -2736,8 +3179,14 @@
       <c r="E8" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" t="str">
         <f t="shared" si="0"/>
         <v>led-lane-b4</v>
@@ -2751,8 +3200,14 @@
       <c r="E9" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" t="str">
         <f t="shared" si="0"/>
         <v>led-target-r1</v>
@@ -2766,8 +3221,14 @@
       <c r="E10" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" t="str">
         <f t="shared" si="0"/>
         <v>led-target-r2</v>
@@ -2781,8 +3242,14 @@
       <c r="E11" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" t="str">
         <f t="shared" si="0"/>
         <v>led-orbit-r</v>
@@ -2796,8 +3263,14 @@
       <c r="E12" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" t="str">
         <f t="shared" si="0"/>
         <v>led-ramp-r</v>
@@ -2811,23 +3284,35 @@
       <c r="E13" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14" t="str">
         <f t="shared" si="0"/>
         <v>led-target-m1</v>
       </c>
       <c r="C14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D14" t="s">
         <v>107</v>
       </c>
       <c r="E14" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B15" t="str">
         <f t="shared" si="0"/>
         <v>led-portal-r</v>
@@ -2841,23 +3326,32 @@
       <c r="E15" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B16" t="str">
         <f t="shared" si="0"/>
         <v>led-target-m2</v>
       </c>
       <c r="C16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D16" t="s">
         <v>109</v>
       </c>
       <c r="E16" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" t="str">
         <f t="shared" si="0"/>
         <v>led-bumper-1</v>
@@ -2871,8 +3365,14 @@
       <c r="E17" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B18" t="str">
         <f t="shared" si="0"/>
         <v>led-bumper-2</v>
@@ -2886,8 +3386,14 @@
       <c r="E18" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B19" t="str">
         <f t="shared" si="0"/>
         <v>led-bumper-3</v>
@@ -2901,8 +3407,14 @@
       <c r="E19" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B20" t="str">
         <f t="shared" si="0"/>
         <v>led-toplane1</v>
@@ -2916,8 +3428,14 @@
       <c r="E20" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B21" t="str">
         <f t="shared" si="0"/>
         <v>led-toplane2</v>
@@ -2931,8 +3449,14 @@
       <c r="E21" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B22" t="str">
         <f t="shared" si="0"/>
         <v>led-toplane3</v>
@@ -2946,8 +3470,14 @@
       <c r="E22" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B23" t="str">
         <f t="shared" si="0"/>
         <v>led-orbit-t</v>
@@ -2961,8 +3491,11 @@
       <c r="E23" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B24" t="str">
         <f t="shared" si="0"/>
         <v>led-target-e1</v>
@@ -2976,8 +3509,11 @@
       <c r="E24" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25" t="str">
         <f t="shared" si="0"/>
         <v>led-target-e2</v>
@@ -2991,8 +3527,11 @@
       <c r="E25" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B26" t="str">
         <f t="shared" si="0"/>
         <v>led-aerial</v>
@@ -3006,23 +3545,32 @@
       <c r="E26" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B27" t="str">
         <f t="shared" si="0"/>
         <v>led-target-m3</v>
       </c>
       <c r="C27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D27" t="s">
         <v>97</v>
       </c>
       <c r="E27" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+        <v>254</v>
+      </c>
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B28" t="str">
         <f t="shared" si="0"/>
         <v>led-portal-m</v>
@@ -3036,23 +3584,32 @@
       <c r="E28" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B29" t="str">
         <f t="shared" si="0"/>
         <v>led-target-m4</v>
       </c>
       <c r="C29" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D29" t="s">
         <v>99</v>
       </c>
       <c r="E29" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B30" t="str">
         <f t="shared" si="0"/>
         <v>led-ramp-l</v>
@@ -3066,8 +3623,14 @@
       <c r="E30" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B31" t="str">
         <f t="shared" si="0"/>
         <v>led-orbit-l</v>
@@ -3081,8 +3644,11 @@
       <c r="E31" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B32" t="str">
         <f t="shared" si="0"/>
         <v>led-button</v>
@@ -3096,47 +3662,73 @@
       <c r="E32" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B33" t="str">
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="42"/>
+      <c r="B33" s="42" t="str">
+        <f t="shared" si="0"/>
+        <v>led-target-l1</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>308</v>
+      </c>
+      <c r="D33" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="E33" s="42" t="s">
+        <v>307</v>
+      </c>
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="42"/>
+      <c r="B34" s="42" t="str">
+        <f t="shared" si="0"/>
+        <v>led-insinerator</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>309</v>
+      </c>
+      <c r="D34" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="E34" s="42" t="s">
+        <v>309</v>
+      </c>
+      <c r="F34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B35" s="32" t="str">
         <f t="shared" si="0"/>
         <v>led-</v>
       </c>
-      <c r="D33" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B34" t="str">
+      <c r="C35" s="32"/>
+      <c r="D35" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B36" s="32" t="str">
         <f t="shared" si="0"/>
         <v>led-</v>
       </c>
-      <c r="D34" t="s">
-        <v>234</v>
-      </c>
-      <c r="E34" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B35" t="str">
-        <f t="shared" si="0"/>
-        <v>led-</v>
-      </c>
-      <c r="D35" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B36" t="str">
-        <f t="shared" si="0"/>
-        <v>led-</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="C36" s="32"/>
+      <c r="D36" s="32" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B37" t="str">
         <f t="shared" si="0"/>
         <v>led-</v>
@@ -3145,7 +3737,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B38" t="str">
         <f t="shared" si="0"/>
         <v>led-</v>
@@ -3154,7 +3746,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B39" t="str">
         <f t="shared" si="0"/>
         <v>led-</v>
@@ -3163,31 +3755,31 @@
         <v>239</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B40" t="str">
         <f t="shared" si="0"/>
         <v>led-</v>
       </c>
       <c r="D40" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B41" t="str">
         <f t="shared" si="0"/>
         <v>led-</v>
       </c>
       <c r="D41" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B42" t="str">
         <f t="shared" si="0"/>
         <v>led-</v>
       </c>
       <c r="D42" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3633,7 +4225,7 @@
   <dimension ref="B1:AZ47"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19:M20"/>
+      <selection activeCell="B15" sqref="B15:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4057,7 +4649,7 @@
     </row>
     <row r="7" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B7" s="33" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C7" s="15" t="str">
         <f>$H$41&amp;"-"&amp;I$32&amp;"-"&amp;E7</f>
@@ -4122,6 +4714,9 @@
       <c r="AK7" s="18"/>
       <c r="AL7" s="18"/>
       <c r="AM7" s="18"/>
+      <c r="AO7" s="42" t="s">
+        <v>310</v>
+      </c>
       <c r="AP7" s="15" t="str">
         <f>$H$41&amp;"-"&amp;AV$32&amp;"-"&amp;AR7</f>
         <v>2-3-0</v>
@@ -4145,7 +4740,7 @@
     </row>
     <row r="8" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B8" s="33" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C8" s="15" t="str">
         <f t="shared" ref="C8:C22" si="0">$H$41&amp;"-"&amp;I$32&amp;"-"&amp;E8</f>
@@ -4235,6 +4830,9 @@
         <v>2-2-16</v>
       </c>
       <c r="AM8" s="26"/>
+      <c r="AO8" s="42" t="s">
+        <v>311</v>
+      </c>
       <c r="AP8" s="15" t="str">
         <f t="shared" ref="AP8:AP22" si="3">$H$41&amp;"-"&amp;AV$32&amp;"-"&amp;AR8</f>
         <v>2-3-1</v>
@@ -4354,6 +4952,9 @@
         <v>2-2-17</v>
       </c>
       <c r="AM9" s="26"/>
+      <c r="AO9" s="42" t="s">
+        <v>312</v>
+      </c>
       <c r="AP9" s="15" t="str">
         <f t="shared" si="3"/>
         <v>2-3-2</v>
@@ -4473,6 +5074,9 @@
         <v>2-2-18</v>
       </c>
       <c r="AM10" s="26"/>
+      <c r="AO10" s="42" t="s">
+        <v>313</v>
+      </c>
       <c r="AP10" s="15" t="str">
         <f t="shared" si="3"/>
         <v>2-3-3</v>
@@ -4592,6 +5196,9 @@
         <v>2-2-19</v>
       </c>
       <c r="AM11" s="26"/>
+      <c r="AO11" s="42" t="s">
+        <v>314</v>
+      </c>
       <c r="AP11" s="15" t="str">
         <f t="shared" si="3"/>
         <v>2-3-4</v>
@@ -4717,6 +5324,9 @@
         <v>2-2-20</v>
       </c>
       <c r="AM12" s="26"/>
+      <c r="AO12" s="42" t="s">
+        <v>315</v>
+      </c>
       <c r="AP12" s="15" t="str">
         <f t="shared" si="3"/>
         <v>2-3-5</v>
@@ -4838,6 +5448,9 @@
         <v>2-2-21</v>
       </c>
       <c r="AM13" s="26"/>
+      <c r="AO13" s="34" t="s">
+        <v>316</v>
+      </c>
       <c r="AP13" s="15" t="str">
         <f t="shared" si="3"/>
         <v>2-3-6</v>
@@ -4986,7 +5599,7 @@
     </row>
     <row r="15" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B15" s="33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C15" s="15" t="str">
         <f t="shared" si="0"/>
@@ -5105,7 +5718,7 @@
     </row>
     <row r="16" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B16" s="33" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C16" s="15" t="str">
         <f t="shared" si="0"/>
@@ -5224,7 +5837,7 @@
     </row>
     <row r="17" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B17" s="33" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C17" s="15" t="str">
         <f t="shared" si="0"/>
@@ -5490,8 +6103,8 @@
         <f t="shared" si="4"/>
         <v>2-0-27</v>
       </c>
-      <c r="M19" s="42" t="s">
-        <v>291</v>
+      <c r="M19" t="s">
+        <v>290</v>
       </c>
       <c r="O19" s="32" t="s">
         <v>145</v>
@@ -5609,8 +6222,8 @@
         <f t="shared" si="4"/>
         <v>2-0-28</v>
       </c>
-      <c r="M20" s="42" t="s">
-        <v>292</v>
+      <c r="M20" t="s">
+        <v>291</v>
       </c>
       <c r="O20" s="32" t="s">
         <v>145</v>
@@ -6360,6 +6973,9 @@
     </row>
     <row r="43" spans="3:48" x14ac:dyDescent="0.35">
       <c r="C43" s="17"/>
+      <c r="M43" s="32" t="s">
+        <v>320</v>
+      </c>
       <c r="P43" s="17"/>
       <c r="AC43" s="17"/>
       <c r="AP43" s="17"/>
@@ -6371,6 +6987,9 @@
       <c r="H44" s="1" cm="1">
         <f t="array" aca="1" ref="H44" ca="1">SUM(COUNTIF(INDIRECT({"$C$7:$C$22";"$J$8:$J$23";"$N$7:$N$22";"$U$8:$U$23";"$Y$7:$Y$22";"$AF$8:$AF$23";"$AJ$7:$AJ$22";"$AQ$8:$AQ$23"}),D44))</f>
         <v>0</v>
+      </c>
+      <c r="M44" s="34" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="45" spans="3:48" x14ac:dyDescent="0.35">

--- a/board Overviews.xlsx
+++ b/board Overviews.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a50f0f76735a0c6b/Documents/Pinball/PortalPinball-V4.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="403" documentId="8_{71A0D3BC-EF29-42BB-95C3-409B160B156F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F6ED302-52F2-4536-928E-773AA60AE409}"/>
+  <xr:revisionPtr revIDLastSave="549" documentId="8_{71A0D3BC-EF29-42BB-95C3-409B160B156F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02AE4BBA-F52A-4D4D-BC75-A03086E45A88}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="725" xr2:uid="{992D9940-FEE0-4AED-9001-DC6BE0040B0B}"/>
+    <workbookView xWindow="4920" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="725" xr2:uid="{992D9940-FEE0-4AED-9001-DC6BE0040B0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Modes" sheetId="11" r:id="rId1"/>
@@ -25,6 +25,9 @@
     <sheet name="Switch" sheetId="4" r:id="rId10"/>
     <sheet name="Incand" sheetId="3" r:id="rId11"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">LEDs!$B$1:$E$51</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -68,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="389">
   <si>
     <t>PSOC4200</t>
   </si>
@@ -1076,9 +1079,6 @@
     <t>not in shot yet</t>
   </si>
   <si>
-    <t>targets complet: spells portal</t>
-  </si>
-  <si>
     <t>Spels blue</t>
   </si>
   <si>
@@ -1128,13 +1128,163 @@
   </si>
   <si>
     <t>led-orbit-t</t>
+  </si>
+  <si>
+    <t>Ball lock</t>
+  </si>
+  <si>
+    <t>Portal right</t>
+  </si>
+  <si>
+    <t>led-portal-r</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>dropper</t>
+  </si>
+  <si>
+    <t>led-dropper</t>
+  </si>
+  <si>
+    <t>ball dropper</t>
+  </si>
+  <si>
+    <t>Droptargets</t>
+  </si>
+  <si>
+    <t>led-target-e1</t>
+  </si>
+  <si>
+    <t>led-target-e2</t>
+  </si>
+  <si>
+    <t>led-aerial</t>
+  </si>
+  <si>
+    <t>led-portal-m</t>
+  </si>
+  <si>
+    <t>portal after aerial</t>
+  </si>
+  <si>
+    <t>led-button</t>
+  </si>
+  <si>
+    <t>exit open</t>
+  </si>
+  <si>
+    <t>exit success</t>
+  </si>
+  <si>
+    <t>exit-success</t>
+  </si>
+  <si>
+    <t>led-exit-success</t>
+  </si>
+  <si>
+    <t>(yellow leds)</t>
+  </si>
+  <si>
+    <t>exit-open-1</t>
+  </si>
+  <si>
+    <t>exit-open-2</t>
+  </si>
+  <si>
+    <t>exit-open-3</t>
+  </si>
+  <si>
+    <t>exit-open-4</t>
+  </si>
+  <si>
+    <t>exit-open-5</t>
+  </si>
+  <si>
+    <t>exit open yellow leds 1</t>
+  </si>
+  <si>
+    <t>exit open yellow leds 2</t>
+  </si>
+  <si>
+    <t>exit open yellow leds 3</t>
+  </si>
+  <si>
+    <t>exit open yellow leds 4</t>
+  </si>
+  <si>
+    <t>exit open yellow leds 5 - lagre yellow square</t>
+  </si>
+  <si>
+    <t>led-exit-open-1</t>
+  </si>
+  <si>
+    <t>led-exit-open-2</t>
+  </si>
+  <si>
+    <t>led-exit-open-3</t>
+  </si>
+  <si>
+    <t>led-exit-open-4</t>
+  </si>
+  <si>
+    <t>led-exit-open-5</t>
+  </si>
+  <si>
+    <t>&lt;shot finished&gt;</t>
+  </si>
+  <si>
+    <t>Shot indicator in middle</t>
+  </si>
+  <si>
+    <t>led-target-l1</t>
+  </si>
+  <si>
+    <t>led-insinerator</t>
+  </si>
+  <si>
+    <t>targer left</t>
+  </si>
+  <si>
+    <t>targets complet: spells glados</t>
+  </si>
+  <si>
+    <t>to do</t>
+  </si>
+  <si>
+    <t>0-0-41</t>
+  </si>
+  <si>
+    <t>0-0-42</t>
+  </si>
+  <si>
+    <t>0-0-43</t>
+  </si>
+  <si>
+    <t>0-0-44</t>
+  </si>
+  <si>
+    <t>0-0-45</t>
+  </si>
+  <si>
+    <t>0-0-46</t>
+  </si>
+  <si>
+    <t>0-0-47</t>
+  </si>
+  <si>
+    <t>0-0-48</t>
+  </si>
+  <si>
+    <t>0-0-49</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1169,8 +1319,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1228,6 +1386,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1356,7 +1520,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1470,6 +1634,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2403,10 +2576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{504015E5-CEAB-419C-A33C-D2331DC4ED29}">
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2418,8 +2591,9 @@
     <col min="6" max="6" width="10.6328125" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.6328125" customWidth="1"/>
     <col min="8" max="8" width="14.453125" customWidth="1"/>
-    <col min="9" max="10" width="13.6328125" customWidth="1"/>
-    <col min="11" max="11" width="11.08984375" customWidth="1"/>
+    <col min="9" max="9" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="41.453125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2452,7 +2626,7 @@
         <v>269</v>
       </c>
       <c r="J1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K1" t="s">
         <v>273</v>
@@ -2481,16 +2655,16 @@
         <v>268</v>
       </c>
       <c r="H2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I2" t="s">
         <v>270</v>
       </c>
       <c r="J2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -2510,13 +2684,13 @@
         <v>268</v>
       </c>
       <c r="H3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I3" t="s">
         <v>271</v>
       </c>
       <c r="J3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -2536,13 +2710,13 @@
         <v>268</v>
       </c>
       <c r="H4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I4" t="s">
         <v>272</v>
       </c>
       <c r="J4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -2562,7 +2736,7 @@
         <v>275</v>
       </c>
       <c r="K6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -2664,7 +2838,7 @@
         <v>293</v>
       </c>
       <c r="J14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -2693,10 +2867,10 @@
         <v>294</v>
       </c>
       <c r="J16" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>300</v>
       </c>
@@ -2706,137 +2880,137 @@
       <c r="D18" t="s">
         <v>268</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E18" t="s">
         <v>310</v>
       </c>
       <c r="I18" t="s">
         <v>301</v>
       </c>
       <c r="K18" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C19" s="1">
         <v>1</v>
       </c>
       <c r="D19" t="s">
         <v>268</v>
       </c>
-      <c r="E19" s="42" t="s">
+      <c r="E19" t="s">
         <v>311</v>
       </c>
       <c r="I19" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C20" s="1">
         <v>1</v>
       </c>
       <c r="D20" t="s">
         <v>268</v>
       </c>
-      <c r="E20" s="42" t="s">
+      <c r="E20" t="s">
         <v>312</v>
       </c>
       <c r="I20" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C21" s="1">
         <v>1</v>
       </c>
       <c r="D21" t="s">
         <v>268</v>
       </c>
-      <c r="E21" s="42" t="s">
+      <c r="E21" t="s">
         <v>313</v>
       </c>
       <c r="I21" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C22" s="1">
         <v>1</v>
       </c>
       <c r="D22" t="s">
         <v>268</v>
       </c>
-      <c r="E22" s="42" t="s">
+      <c r="E22" t="s">
         <v>314</v>
       </c>
       <c r="I22" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C23" s="1">
         <v>1</v>
       </c>
       <c r="D23" t="s">
         <v>268</v>
       </c>
-      <c r="E23" s="42" t="s">
+      <c r="E23" t="s">
         <v>315</v>
       </c>
       <c r="I23" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E25" t="s">
         <v>284</v>
       </c>
       <c r="I25" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K25" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.35">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C26" s="1">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E26" t="s">
         <v>285</v>
       </c>
       <c r="I26" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.35">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C27" s="1">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E27" t="s">
         <v>286</v>
       </c>
       <c r="I27" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.35">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -2856,7 +3030,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>248</v>
       </c>
@@ -2875,49 +3049,295 @@
       </c>
       <c r="H31" s="32"/>
       <c r="I31" t="s">
-        <v>331</v>
-      </c>
-      <c r="P31" s="32" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>346</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>268</v>
+      </c>
+      <c r="E33" s="32"/>
+      <c r="I33" t="s">
+        <v>347</v>
+      </c>
+      <c r="M33" s="32" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>268</v>
+      </c>
+      <c r="E34" s="32"/>
+      <c r="I34" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>250</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>342</v>
+      </c>
+      <c r="E36" s="32"/>
+      <c r="I36" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E37" s="42"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>353</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>268</v>
+      </c>
+      <c r="E38" t="s">
+        <v>373</v>
+      </c>
+      <c r="I38" t="s">
+        <v>368</v>
+      </c>
+      <c r="J38" t="s">
+        <v>374</v>
+      </c>
+      <c r="K38" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>268</v>
+      </c>
+      <c r="E39" t="s">
+        <v>373</v>
+      </c>
+      <c r="I39" t="s">
+        <v>369</v>
+      </c>
+      <c r="J39" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>268</v>
+      </c>
+      <c r="E40" t="s">
+        <v>373</v>
+      </c>
+      <c r="I40" t="s">
+        <v>370</v>
+      </c>
+      <c r="J40" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>268</v>
+      </c>
+      <c r="E41" t="s">
+        <v>373</v>
+      </c>
+      <c r="I41" t="s">
+        <v>371</v>
+      </c>
+      <c r="J41" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>268</v>
+      </c>
+      <c r="E42" t="s">
+        <v>373</v>
+      </c>
+      <c r="I42" t="s">
+        <v>372</v>
+      </c>
+      <c r="J42" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>377</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>268</v>
+      </c>
+      <c r="E44" s="42" t="s">
+        <v>316</v>
+      </c>
+      <c r="I44" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>297</v>
+      </c>
+      <c r="B47" t="s">
+        <v>298</v>
+      </c>
+      <c r="E47" s="32"/>
+      <c r="I47" s="23" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I48" s="23"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>299</v>
+      </c>
+      <c r="E49" s="32"/>
+      <c r="I49" s="23" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>297</v>
-      </c>
-      <c r="B35" t="s">
-        <v>298</v>
-      </c>
-      <c r="E35" s="32"/>
-      <c r="I35" s="23" t="s">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I50" s="23"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>289</v>
+      </c>
+      <c r="B51" t="s">
+        <v>289</v>
+      </c>
+      <c r="E51" s="32"/>
+      <c r="I51" s="23" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I36" s="23"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B37" t="s">
-        <v>299</v>
-      </c>
-      <c r="E37" s="32"/>
-      <c r="I37" s="23" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I38" s="23"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>289</v>
-      </c>
-      <c r="B39" t="s">
-        <v>289</v>
-      </c>
-      <c r="E39" s="32"/>
-      <c r="I39" s="23" t="s">
-        <v>338</v>
+      <c r="B55" t="s">
+        <v>340</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>342</v>
+      </c>
+      <c r="E55" s="32"/>
+      <c r="I55" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B56" t="s">
+        <v>345</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>342</v>
+      </c>
+      <c r="E56" s="32"/>
+      <c r="I56" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B57" t="s">
+        <v>354</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>342</v>
+      </c>
+      <c r="E57" s="32"/>
+      <c r="I57" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B58" t="s">
+        <v>245</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>342</v>
+      </c>
+      <c r="E58" s="32"/>
+      <c r="I58" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
+        <v>351</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>342</v>
+      </c>
+      <c r="E59" s="32"/>
+      <c r="I59" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B60" t="s">
+        <v>309</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>342</v>
+      </c>
+      <c r="E60" s="32"/>
+      <c r="I60" t="s">
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -3002,44 +3422,53 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E848134-5BBE-40A2-B435-5EF431EA961E}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="B1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="4.1796875" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" customWidth="1"/>
     <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" style="1" customWidth="1"/>
     <col min="5" max="5" width="38.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="2.81640625" customWidth="1"/>
+    <col min="7" max="7" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
+    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="H1" s="34" t="s">
         <v>317</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" s="43" t="s">
         <v>319</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" s="44" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" t="str">
         <f>"led-"&amp;C2</f>
         <v>led-launch</v>
@@ -3047,20 +3476,14 @@
       <c r="C2" t="s">
         <v>149</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="47" t="s">
         <v>115</v>
       </c>
       <c r="E2" t="s">
         <v>191</v>
       </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" t="str">
         <f t="shared" ref="B3:B42" si="0">"led-"&amp;C3</f>
         <v>led-save</v>
@@ -3068,20 +3491,14 @@
       <c r="C3" t="s">
         <v>193</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="47" t="s">
         <v>106</v>
       </c>
       <c r="E3" t="s">
         <v>192</v>
       </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" t="str">
         <f t="shared" si="0"/>
         <v>led-lane-b1</v>
@@ -3089,20 +3506,14 @@
       <c r="C4" t="s">
         <v>210</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="47" t="s">
         <v>105</v>
       </c>
       <c r="E4" t="s">
         <v>202</v>
       </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" t="str">
         <f t="shared" si="0"/>
         <v>led-lane-b2</v>
@@ -3110,20 +3521,14 @@
       <c r="C5" t="s">
         <v>211</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="47" t="s">
         <v>104</v>
       </c>
       <c r="E5" t="s">
         <v>194</v>
       </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6" t="str">
         <f t="shared" si="0"/>
         <v>led-sling-r</v>
@@ -3131,20 +3536,14 @@
       <c r="C6" t="s">
         <v>212</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="47" t="s">
         <v>114</v>
       </c>
       <c r="E6" t="s">
         <v>204</v>
       </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" t="str">
         <f t="shared" si="0"/>
         <v>led-sling-l</v>
@@ -3152,20 +3551,14 @@
       <c r="C7" t="s">
         <v>213</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="47" t="s">
         <v>113</v>
       </c>
       <c r="E7" t="s">
         <v>205</v>
       </c>
-      <c r="F7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B8" t="str">
         <f t="shared" si="0"/>
         <v>led-lane-b3</v>
@@ -3173,20 +3566,14 @@
       <c r="C8" t="s">
         <v>214</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="47" t="s">
         <v>112</v>
       </c>
       <c r="E8" t="s">
         <v>195</v>
       </c>
-      <c r="F8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" t="str">
         <f t="shared" si="0"/>
         <v>led-lane-b4</v>
@@ -3194,20 +3581,14 @@
       <c r="C9" t="s">
         <v>215</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="47" t="s">
         <v>111</v>
       </c>
       <c r="E9" t="s">
         <v>203</v>
       </c>
-      <c r="F9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B10" t="str">
         <f t="shared" si="0"/>
         <v>led-target-r1</v>
@@ -3215,20 +3596,14 @@
       <c r="C10" t="s">
         <v>216</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="47" t="s">
         <v>103</v>
       </c>
       <c r="E10" t="s">
         <v>208</v>
       </c>
-      <c r="F10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" t="str">
         <f t="shared" si="0"/>
         <v>led-target-r2</v>
@@ -3236,20 +3611,14 @@
       <c r="C11" t="s">
         <v>217</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="47" t="s">
         <v>102</v>
       </c>
       <c r="E11" t="s">
         <v>209</v>
       </c>
-      <c r="F11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B12" t="str">
         <f t="shared" si="0"/>
         <v>led-orbit-r</v>
@@ -3257,20 +3626,14 @@
       <c r="C12" t="s">
         <v>219</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="47" t="s">
         <v>101</v>
       </c>
       <c r="E12" t="s">
         <v>218</v>
       </c>
-      <c r="F12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" t="str">
         <f t="shared" si="0"/>
         <v>led-ramp-r</v>
@@ -3278,20 +3641,14 @@
       <c r="C13" t="s">
         <v>225</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="47" t="s">
         <v>100</v>
       </c>
       <c r="E13" t="s">
         <v>224</v>
       </c>
-      <c r="F13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B14" t="str">
         <f t="shared" si="0"/>
         <v>led-target-m1</v>
@@ -3299,20 +3656,14 @@
       <c r="C14" t="s">
         <v>259</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="47" t="s">
         <v>107</v>
       </c>
       <c r="E14" t="s">
         <v>252</v>
       </c>
-      <c r="F14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" t="str">
         <f t="shared" si="0"/>
         <v>led-portal-r</v>
@@ -3320,17 +3671,14 @@
       <c r="C15" t="s">
         <v>227</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="47" t="s">
         <v>108</v>
       </c>
       <c r="E15" t="s">
         <v>226</v>
       </c>
-      <c r="F15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" t="str">
         <f t="shared" si="0"/>
         <v>led-target-m2</v>
@@ -3338,20 +3686,14 @@
       <c r="C16" t="s">
         <v>260</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="47" t="s">
         <v>109</v>
       </c>
       <c r="E16" t="s">
         <v>253</v>
       </c>
-      <c r="F16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" t="str">
         <f t="shared" si="0"/>
         <v>led-bumper-1</v>
@@ -3359,20 +3701,14 @@
       <c r="C17" t="s">
         <v>231</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="47" t="s">
         <v>110</v>
       </c>
       <c r="E17" t="s">
         <v>228</v>
       </c>
-      <c r="F17" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" t="str">
         <f t="shared" si="0"/>
         <v>led-bumper-2</v>
@@ -3380,20 +3716,14 @@
       <c r="C18" t="s">
         <v>232</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="47" t="s">
         <v>92</v>
       </c>
       <c r="E18" t="s">
         <v>229</v>
       </c>
-      <c r="F18" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" t="str">
         <f t="shared" si="0"/>
         <v>led-bumper-3</v>
@@ -3401,20 +3731,14 @@
       <c r="C19" t="s">
         <v>233</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="47" t="s">
         <v>93</v>
       </c>
       <c r="E19" t="s">
         <v>230</v>
       </c>
-      <c r="F19" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" t="str">
         <f t="shared" si="0"/>
         <v>led-toplane1</v>
@@ -3422,20 +3746,14 @@
       <c r="C20" t="s">
         <v>196</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="47" t="s">
         <v>94</v>
       </c>
       <c r="E20" t="s">
         <v>199</v>
       </c>
-      <c r="F20" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" t="str">
         <f t="shared" si="0"/>
         <v>led-toplane2</v>
@@ -3443,20 +3761,14 @@
       <c r="C21" t="s">
         <v>197</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="47" t="s">
         <v>95</v>
       </c>
       <c r="E21" t="s">
         <v>200</v>
       </c>
-      <c r="F21" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" t="str">
         <f t="shared" si="0"/>
         <v>led-toplane3</v>
@@ -3464,20 +3776,14 @@
       <c r="C22" t="s">
         <v>198</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="47" t="s">
         <v>184</v>
       </c>
       <c r="E22" t="s">
         <v>201</v>
       </c>
-      <c r="F22" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" t="str">
         <f t="shared" si="0"/>
         <v>led-orbit-t</v>
@@ -3485,17 +3791,14 @@
       <c r="C23" t="s">
         <v>223</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="47" t="s">
         <v>185</v>
       </c>
       <c r="E23" t="s">
         <v>222</v>
       </c>
-      <c r="F23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" t="str">
         <f t="shared" si="0"/>
         <v>led-target-e1</v>
@@ -3503,17 +3806,14 @@
       <c r="C24" t="s">
         <v>242</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="47" t="s">
         <v>186</v>
       </c>
       <c r="E24" t="s">
         <v>240</v>
       </c>
-      <c r="F24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" t="str">
         <f t="shared" si="0"/>
         <v>led-target-e2</v>
@@ -3521,17 +3821,14 @@
       <c r="C25" t="s">
         <v>243</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="47" t="s">
         <v>187</v>
       </c>
       <c r="E25" t="s">
         <v>241</v>
       </c>
-      <c r="F25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" t="str">
         <f t="shared" si="0"/>
         <v>led-aerial</v>
@@ -3539,17 +3836,14 @@
       <c r="C26" t="s">
         <v>245</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="47" t="s">
         <v>96</v>
       </c>
       <c r="E26" t="s">
         <v>244</v>
       </c>
-      <c r="F26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27" t="str">
         <f t="shared" si="0"/>
         <v>led-target-m3</v>
@@ -3557,20 +3851,14 @@
       <c r="C27" t="s">
         <v>262</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="47" t="s">
         <v>97</v>
       </c>
       <c r="E27" t="s">
         <v>254</v>
       </c>
-      <c r="F27" t="b">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B28" t="str">
         <f t="shared" si="0"/>
         <v>led-portal-m</v>
@@ -3578,17 +3866,14 @@
       <c r="C28" t="s">
         <v>247</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="47" t="s">
         <v>98</v>
       </c>
       <c r="E28" t="s">
         <v>246</v>
       </c>
-      <c r="F28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" t="str">
         <f t="shared" si="0"/>
         <v>led-target-m4</v>
@@ -3596,20 +3881,14 @@
       <c r="C29" t="s">
         <v>261</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="47" t="s">
         <v>99</v>
       </c>
       <c r="E29" t="s">
         <v>255</v>
       </c>
-      <c r="F29" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B30" t="str">
         <f t="shared" si="0"/>
         <v>led-ramp-l</v>
@@ -3617,20 +3896,14 @@
       <c r="C30" t="s">
         <v>249</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="47" t="s">
         <v>188</v>
       </c>
       <c r="E30" t="s">
         <v>248</v>
       </c>
-      <c r="F30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B31" t="str">
         <f t="shared" si="0"/>
         <v>led-orbit-l</v>
@@ -3638,17 +3911,14 @@
       <c r="C31" t="s">
         <v>221</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="47" t="s">
         <v>189</v>
       </c>
       <c r="E31" t="s">
         <v>220</v>
       </c>
-      <c r="F31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" t="str">
         <f t="shared" si="0"/>
         <v>led-button</v>
@@ -3656,133 +3926,240 @@
       <c r="C32" t="s">
         <v>250</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="47" t="s">
         <v>206</v>
       </c>
       <c r="E32" t="s">
         <v>251</v>
       </c>
-      <c r="F32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="42"/>
-      <c r="B33" s="42" t="str">
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B33" t="str">
         <f t="shared" si="0"/>
         <v>led-target-l1</v>
       </c>
-      <c r="C33" s="42" t="s">
+      <c r="C33" t="s">
         <v>308</v>
       </c>
-      <c r="D33" s="42" t="s">
+      <c r="D33" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="E33" s="42" t="s">
+      <c r="E33" t="s">
         <v>307</v>
       </c>
-      <c r="F33" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="42"/>
-      <c r="B34" s="42" t="str">
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B34" t="str">
         <f t="shared" si="0"/>
         <v>led-insinerator</v>
       </c>
-      <c r="C34" s="42" t="s">
+      <c r="C34" t="s">
         <v>309</v>
       </c>
-      <c r="D34" s="42" t="s">
+      <c r="D34" s="47" t="s">
         <v>234</v>
       </c>
-      <c r="E34" s="42" t="s">
+      <c r="E34" t="s">
         <v>309</v>
       </c>
-      <c r="F34" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B35" s="32" t="str">
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>led-</v>
-      </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32" t="s">
+        <v>led-dropper</v>
+      </c>
+      <c r="C35" t="s">
+        <v>343</v>
+      </c>
+      <c r="D35" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B36" s="32" t="str">
+      <c r="E35" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B36" s="42" t="str">
         <f t="shared" si="0"/>
-        <v>led-</v>
-      </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32" t="s">
+        <v>led-exit-success</v>
+      </c>
+      <c r="C36" s="42" t="s">
+        <v>355</v>
+      </c>
+      <c r="D36" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E36" s="42" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B37" t="str">
         <f t="shared" si="0"/>
-        <v>led-</v>
-      </c>
-      <c r="D37" t="s">
+        <v>led-exit-open-1</v>
+      </c>
+      <c r="C37" s="42" t="s">
+        <v>358</v>
+      </c>
+      <c r="D37" s="47" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E37" s="42" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B38" t="str">
         <f t="shared" si="0"/>
-        <v>led-</v>
-      </c>
-      <c r="D38" t="s">
+        <v>led-exit-open-2</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>359</v>
+      </c>
+      <c r="D38" s="47" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E38" s="42" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B39" t="str">
         <f t="shared" si="0"/>
-        <v>led-</v>
-      </c>
-      <c r="D39" t="s">
+        <v>led-exit-open-3</v>
+      </c>
+      <c r="C39" s="42" t="s">
+        <v>360</v>
+      </c>
+      <c r="D39" s="47" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E39" s="42" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B40" t="str">
         <f t="shared" si="0"/>
-        <v>led-</v>
-      </c>
-      <c r="D40" t="s">
+        <v>led-exit-open-4</v>
+      </c>
+      <c r="C40" s="42" t="s">
+        <v>361</v>
+      </c>
+      <c r="D40" s="47" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E40" s="42" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B41" t="str">
         <f t="shared" si="0"/>
-        <v>led-</v>
-      </c>
-      <c r="D41" t="s">
+        <v>led-exit-open-5</v>
+      </c>
+      <c r="C41" s="42" t="s">
+        <v>362</v>
+      </c>
+      <c r="D41" s="47" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E41" s="42" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B42" t="str">
         <f t="shared" si="0"/>
         <v>led-</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="1" t="s">
         <v>258</v>
       </c>
     </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B43" t="str">
+        <f t="shared" ref="B43:B51" si="1">"led-"&amp;C43</f>
+        <v>led-</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B44" t="str">
+        <f t="shared" si="1"/>
+        <v>led-</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B45" t="str">
+        <f t="shared" si="1"/>
+        <v>led-</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B46" t="str">
+        <f t="shared" si="1"/>
+        <v>led-</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B47" t="str">
+        <f t="shared" si="1"/>
+        <v>led-</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B48" t="str">
+        <f t="shared" si="1"/>
+        <v>led-</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B49" t="str">
+        <f t="shared" si="1"/>
+        <v>led-</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B50" t="str">
+        <f t="shared" si="1"/>
+        <v>led-</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B51" t="str">
+        <f t="shared" si="1"/>
+        <v>led-</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="B1:E51" xr:uid="{8E848134-5BBE-40A2-B435-5EF431EA961E}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4225,7 +4602,7 @@
   <dimension ref="B1:AZ47"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B17"/>
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4714,7 +5091,7 @@
       <c r="AK7" s="18"/>
       <c r="AL7" s="18"/>
       <c r="AM7" s="18"/>
-      <c r="AO7" s="42" t="s">
+      <c r="AO7" t="s">
         <v>310</v>
       </c>
       <c r="AP7" s="15" t="str">
@@ -4830,7 +5207,7 @@
         <v>2-2-16</v>
       </c>
       <c r="AM8" s="26"/>
-      <c r="AO8" s="42" t="s">
+      <c r="AO8" t="s">
         <v>311</v>
       </c>
       <c r="AP8" s="15" t="str">
@@ -4952,7 +5329,7 @@
         <v>2-2-17</v>
       </c>
       <c r="AM9" s="26"/>
-      <c r="AO9" s="42" t="s">
+      <c r="AO9" t="s">
         <v>312</v>
       </c>
       <c r="AP9" s="15" t="str">
@@ -5074,7 +5451,7 @@
         <v>2-2-18</v>
       </c>
       <c r="AM10" s="26"/>
-      <c r="AO10" s="42" t="s">
+      <c r="AO10" t="s">
         <v>313</v>
       </c>
       <c r="AP10" s="15" t="str">
@@ -5196,7 +5573,7 @@
         <v>2-2-19</v>
       </c>
       <c r="AM11" s="26"/>
-      <c r="AO11" s="42" t="s">
+      <c r="AO11" t="s">
         <v>314</v>
       </c>
       <c r="AP11" s="15" t="str">
@@ -5324,7 +5701,7 @@
         <v>2-2-20</v>
       </c>
       <c r="AM12" s="26"/>
-      <c r="AO12" s="42" t="s">
+      <c r="AO12" t="s">
         <v>315</v>
       </c>
       <c r="AP12" s="15" t="str">
@@ -5448,7 +5825,7 @@
         <v>2-2-21</v>
       </c>
       <c r="AM13" s="26"/>
-      <c r="AO13" s="34" t="s">
+      <c r="AO13" s="42" t="s">
         <v>316</v>
       </c>
       <c r="AP13" s="15" t="str">

--- a/board Overviews.xlsx
+++ b/board Overviews.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a50f0f76735a0c6b/Documents/Pinball/PortalPinball-V4.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="549" documentId="8_{71A0D3BC-EF29-42BB-95C3-409B160B156F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02AE4BBA-F52A-4D4D-BC75-A03086E45A88}"/>
+  <xr:revisionPtr revIDLastSave="595" documentId="8_{71A0D3BC-EF29-42BB-95C3-409B160B156F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8F4BEE1-127C-4B4A-850F-3E1D7596E42D}"/>
   <bookViews>
     <workbookView xWindow="4920" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="725" xr2:uid="{992D9940-FEE0-4AED-9001-DC6BE0040B0B}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="397">
   <si>
     <t>PSOC4200</t>
   </si>
@@ -608,15 +608,6 @@
     <t>s_bottomlane5 - not on field</t>
   </si>
   <si>
-    <t>s_Other03</t>
-  </si>
-  <si>
-    <t>s_Other04</t>
-  </si>
-  <si>
-    <t>s_Other05</t>
-  </si>
-  <si>
     <t>s_drop1</t>
   </si>
   <si>
@@ -632,18 +623,6 @@
     <t>s_vukmid</t>
   </si>
   <si>
-    <t>s_Other06</t>
-  </si>
-  <si>
-    <t>s_Other07</t>
-  </si>
-  <si>
-    <t>s_Other08</t>
-  </si>
-  <si>
-    <t>s_Other09</t>
-  </si>
-  <si>
     <t>c_drop</t>
   </si>
   <si>
@@ -1118,9 +1097,6 @@
     <t>right ramp</t>
   </si>
   <si>
-    <t>missing switches</t>
-  </si>
-  <si>
     <t>led-launch</t>
   </si>
   <si>
@@ -1278,6 +1254,54 @@
   </si>
   <si>
     <t>0-0-49</t>
+  </si>
+  <si>
+    <t>s-ramp-r1</t>
+  </si>
+  <si>
+    <t>s-ramp-l1</t>
+  </si>
+  <si>
+    <t>s-ramp-r2</t>
+  </si>
+  <si>
+    <t>s-ramp-l2</t>
+  </si>
+  <si>
+    <t>s-target-e1</t>
+  </si>
+  <si>
+    <t>s-target-e2</t>
+  </si>
+  <si>
+    <t>s-button</t>
+  </si>
+  <si>
+    <t>s-orbit-top</t>
+  </si>
+  <si>
+    <t>&lt;shot&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ball drain&gt;</t>
+  </si>
+  <si>
+    <t>s-portal-r</t>
+  </si>
+  <si>
+    <t>s-dropper</t>
+  </si>
+  <si>
+    <t>s-aerial</t>
+  </si>
+  <si>
+    <t>s-insinerator</t>
+  </si>
+  <si>
+    <t>s-exit-success</t>
+  </si>
+  <si>
+    <t>s-portal-m</t>
   </si>
 </sst>
 </file>
@@ -1617,6 +1641,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1634,15 +1667,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2275,10 +2299,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -2576,10 +2596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{504015E5-CEAB-419C-A33C-D2331DC4ED29}">
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30:N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2599,51 +2619,51 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H1" t="s">
+        <v>260</v>
+      </c>
+      <c r="I1" t="s">
+        <v>262</v>
+      </c>
+      <c r="J1" t="s">
+        <v>319</v>
+      </c>
+      <c r="K1" t="s">
         <v>266</v>
-      </c>
-      <c r="E1" t="s">
-        <v>267</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="G1" t="s">
-        <v>266</v>
-      </c>
-      <c r="H1" t="s">
-        <v>267</v>
-      </c>
-      <c r="I1" t="s">
-        <v>269</v>
-      </c>
-      <c r="J1" t="s">
-        <v>326</v>
-      </c>
-      <c r="K1" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E2" t="s">
         <v>157</v>
@@ -2652,19 +2672,19 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="H2" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="I2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="J2" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="K2" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -2672,7 +2692,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E3" t="s">
         <v>158</v>
@@ -2681,16 +2701,16 @@
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="H3" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="I3" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="J3" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -2698,7 +2718,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E4" t="s">
         <v>159</v>
@@ -2707,36 +2727,36 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="H4" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="I4" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="J4" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E6" t="s">
         <v>160</v>
       </c>
       <c r="I6" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="K6" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -2744,13 +2764,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E7" t="s">
         <v>161</v>
       </c>
       <c r="I7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -2758,13 +2778,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E8" t="s">
         <v>162</v>
       </c>
       <c r="I8" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -2772,30 +2792,30 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E9" t="s">
         <v>163</v>
       </c>
       <c r="I9" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E11" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="I11" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -2803,18 +2823,18 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E12" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="I12" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -2823,27 +2843,27 @@
         <v>148</v>
       </c>
       <c r="E14" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="F14" s="1">
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="H14" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="I14" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="J14" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -2852,165 +2872,165 @@
         <v>148</v>
       </c>
       <c r="E16" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F16" s="1">
         <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="H16" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="I16" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="J16" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E18" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="I18" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="K18" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C19" s="1">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E19" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="I19" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C20" s="1">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E20" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="I20" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C21" s="1">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E21" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="I21" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C22" s="1">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E22" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="I22" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C23" s="1">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E23" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="I23" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="E25" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="I25" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K25" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C26" s="1">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="E26" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="I26" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C27" s="1">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="E27" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="I27" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -3018,21 +3038,31 @@
       <c r="D29" t="s">
         <v>148</v>
       </c>
-      <c r="E29" s="32"/>
+      <c r="E29" s="47" t="s">
+        <v>381</v>
+      </c>
       <c r="F29" s="1">
         <v>2</v>
       </c>
       <c r="G29" t="s">
-        <v>292</v>
-      </c>
-      <c r="H29" s="32"/>
+        <v>285</v>
+      </c>
+      <c r="H29" s="47" t="s">
+        <v>383</v>
+      </c>
       <c r="I29" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.35">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="E30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="47"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
@@ -3040,304 +3070,344 @@
       <c r="D31" t="s">
         <v>148</v>
       </c>
-      <c r="E31" s="32"/>
+      <c r="E31" s="47" t="s">
+        <v>382</v>
+      </c>
       <c r="F31" s="1">
         <v>2</v>
       </c>
       <c r="G31" t="s">
-        <v>292</v>
-      </c>
-      <c r="H31" s="32"/>
+        <v>285</v>
+      </c>
+      <c r="H31" s="47" t="s">
+        <v>384</v>
+      </c>
       <c r="I31" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+        <v>323</v>
+      </c>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>268</v>
-      </c>
-      <c r="E33" s="32"/>
+        <v>261</v>
+      </c>
+      <c r="E33" s="47" t="s">
+        <v>385</v>
+      </c>
       <c r="I33" t="s">
-        <v>347</v>
-      </c>
-      <c r="M33" s="32" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+        <v>339</v>
+      </c>
+      <c r="M33" s="47"/>
+      <c r="N33" s="47"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C34" s="1">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>268</v>
-      </c>
-      <c r="E34" s="32"/>
+        <v>261</v>
+      </c>
+      <c r="E34" s="47" t="s">
+        <v>386</v>
+      </c>
       <c r="I34" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+        <v>340</v>
+      </c>
+      <c r="M34" s="47"/>
+      <c r="N34" s="47"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M35" s="47"/>
+      <c r="N35" s="47"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>342</v>
-      </c>
-      <c r="E36" s="32"/>
+        <v>334</v>
+      </c>
+      <c r="E36" s="47" t="s">
+        <v>387</v>
+      </c>
       <c r="I36" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="E37" s="42"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+        <v>344</v>
+      </c>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C38" s="1">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E38" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="I38" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="J38" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="K38" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C39" s="1">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E39" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="I39" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="J39" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C40" s="1">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E40" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="I40" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="J40" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C41" s="1">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E41" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="I41" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="J41" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C42" s="1">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E42" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="I42" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="J42" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C44" s="1">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>268</v>
-      </c>
-      <c r="E44" s="42" t="s">
-        <v>316</v>
+        <v>261</v>
+      </c>
+      <c r="E44" t="s">
+        <v>309</v>
       </c>
       <c r="I44" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B47" t="s">
-        <v>298</v>
-      </c>
-      <c r="E47" s="32"/>
+        <v>291</v>
+      </c>
+      <c r="E47" s="47" t="s">
+        <v>388</v>
+      </c>
       <c r="I47" s="23" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E48" s="47"/>
       <c r="I48" s="23"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
-        <v>299</v>
-      </c>
-      <c r="E49" s="32"/>
+        <v>292</v>
+      </c>
+      <c r="E49" s="47" t="s">
+        <v>389</v>
+      </c>
       <c r="I49" s="23" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E50" s="47"/>
       <c r="I50" s="23"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B51" t="s">
-        <v>289</v>
-      </c>
-      <c r="E51" s="32"/>
+        <v>282</v>
+      </c>
+      <c r="E51" s="47" t="s">
+        <v>390</v>
+      </c>
       <c r="I51" s="23" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="B55" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C55" s="1">
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>342</v>
-      </c>
-      <c r="E55" s="32"/>
+        <v>334</v>
+      </c>
+      <c r="E55" s="47" t="s">
+        <v>391</v>
+      </c>
       <c r="I55" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>342</v>
-      </c>
-      <c r="E56" s="32"/>
+        <v>334</v>
+      </c>
+      <c r="E56" s="47" t="s">
+        <v>392</v>
+      </c>
       <c r="I56" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="C57" s="1">
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>342</v>
-      </c>
-      <c r="E57" s="32"/>
+        <v>334</v>
+      </c>
+      <c r="E57" s="47" t="s">
+        <v>395</v>
+      </c>
       <c r="I57" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C58" s="1">
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>342</v>
-      </c>
-      <c r="E58" s="32"/>
+        <v>334</v>
+      </c>
+      <c r="E58" s="47" t="s">
+        <v>393</v>
+      </c>
       <c r="I58" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C59" s="1">
         <v>1</v>
       </c>
       <c r="D59" t="s">
+        <v>334</v>
+      </c>
+      <c r="E59" s="47" t="s">
+        <v>396</v>
+      </c>
+      <c r="I59" t="s">
         <v>342</v>
-      </c>
-      <c r="E59" s="32"/>
-      <c r="I59" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C60" s="1">
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>342</v>
-      </c>
-      <c r="E60" s="32"/>
+        <v>334</v>
+      </c>
+      <c r="E60" s="47" t="s">
+        <v>394</v>
+      </c>
       <c r="I60" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -3357,36 +3427,36 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="18" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3443,29 +3513,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="45" t="s">
-        <v>181</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>182</v>
-      </c>
-      <c r="D1" s="46" t="s">
+      <c r="B1" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="E1" s="45" t="s">
-        <v>190</v>
-      </c>
       <c r="G1" s="32" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="H1" s="34" t="s">
-        <v>317</v>
-      </c>
-      <c r="I1" s="43" t="s">
-        <v>319</v>
-      </c>
-      <c r="J1" s="44" t="s">
-        <v>318</v>
+        <v>310</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
@@ -3476,11 +3546,11 @@
       <c r="C2" t="s">
         <v>149</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="40" t="s">
         <v>115</v>
       </c>
       <c r="E2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
@@ -3489,13 +3559,13 @@
         <v>led-save</v>
       </c>
       <c r="C3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D3" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="40" t="s">
         <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
@@ -3504,13 +3574,13 @@
         <v>led-lane-b1</v>
       </c>
       <c r="C4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D4" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="40" t="s">
         <v>105</v>
       </c>
       <c r="E4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
@@ -3519,13 +3589,13 @@
         <v>led-lane-b2</v>
       </c>
       <c r="C5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D5" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" s="40" t="s">
         <v>104</v>
       </c>
       <c r="E5" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.35">
@@ -3534,13 +3604,13 @@
         <v>led-sling-r</v>
       </c>
       <c r="C6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D6" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="40" t="s">
         <v>114</v>
       </c>
       <c r="E6" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -3549,13 +3619,13 @@
         <v>led-sling-l</v>
       </c>
       <c r="C7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D7" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="D7" s="40" t="s">
         <v>113</v>
       </c>
       <c r="E7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.35">
@@ -3564,13 +3634,13 @@
         <v>led-lane-b3</v>
       </c>
       <c r="C8" t="s">
-        <v>214</v>
-      </c>
-      <c r="D8" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="D8" s="40" t="s">
         <v>112</v>
       </c>
       <c r="E8" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.35">
@@ -3579,13 +3649,13 @@
         <v>led-lane-b4</v>
       </c>
       <c r="C9" t="s">
-        <v>215</v>
-      </c>
-      <c r="D9" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="D9" s="40" t="s">
         <v>111</v>
       </c>
       <c r="E9" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.35">
@@ -3594,13 +3664,13 @@
         <v>led-target-r1</v>
       </c>
       <c r="C10" t="s">
-        <v>216</v>
-      </c>
-      <c r="D10" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="D10" s="40" t="s">
         <v>103</v>
       </c>
       <c r="E10" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
@@ -3609,13 +3679,13 @@
         <v>led-target-r2</v>
       </c>
       <c r="C11" t="s">
-        <v>217</v>
-      </c>
-      <c r="D11" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="D11" s="40" t="s">
         <v>102</v>
       </c>
       <c r="E11" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.35">
@@ -3624,13 +3694,13 @@
         <v>led-orbit-r</v>
       </c>
       <c r="C12" t="s">
-        <v>219</v>
-      </c>
-      <c r="D12" s="47" t="s">
+        <v>212</v>
+      </c>
+      <c r="D12" s="40" t="s">
         <v>101</v>
       </c>
       <c r="E12" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
@@ -3639,13 +3709,13 @@
         <v>led-ramp-r</v>
       </c>
       <c r="C13" t="s">
-        <v>225</v>
-      </c>
-      <c r="D13" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="D13" s="40" t="s">
         <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.35">
@@ -3654,13 +3724,13 @@
         <v>led-target-m1</v>
       </c>
       <c r="C14" t="s">
-        <v>259</v>
-      </c>
-      <c r="D14" s="47" t="s">
+        <v>252</v>
+      </c>
+      <c r="D14" s="40" t="s">
         <v>107</v>
       </c>
       <c r="E14" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.35">
@@ -3669,13 +3739,13 @@
         <v>led-portal-r</v>
       </c>
       <c r="C15" t="s">
-        <v>227</v>
-      </c>
-      <c r="D15" s="47" t="s">
+        <v>220</v>
+      </c>
+      <c r="D15" s="40" t="s">
         <v>108</v>
       </c>
       <c r="E15" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -3684,13 +3754,13 @@
         <v>led-target-m2</v>
       </c>
       <c r="C16" t="s">
-        <v>260</v>
-      </c>
-      <c r="D16" s="47" t="s">
+        <v>253</v>
+      </c>
+      <c r="D16" s="40" t="s">
         <v>109</v>
       </c>
       <c r="E16" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
@@ -3699,13 +3769,13 @@
         <v>led-bumper-1</v>
       </c>
       <c r="C17" t="s">
-        <v>231</v>
-      </c>
-      <c r="D17" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="D17" s="40" t="s">
         <v>110</v>
       </c>
       <c r="E17" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
@@ -3714,13 +3784,13 @@
         <v>led-bumper-2</v>
       </c>
       <c r="C18" t="s">
-        <v>232</v>
-      </c>
-      <c r="D18" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="D18" s="40" t="s">
         <v>92</v>
       </c>
       <c r="E18" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.35">
@@ -3729,13 +3799,13 @@
         <v>led-bumper-3</v>
       </c>
       <c r="C19" t="s">
-        <v>233</v>
-      </c>
-      <c r="D19" s="47" t="s">
+        <v>226</v>
+      </c>
+      <c r="D19" s="40" t="s">
         <v>93</v>
       </c>
       <c r="E19" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.35">
@@ -3744,13 +3814,13 @@
         <v>led-toplane1</v>
       </c>
       <c r="C20" t="s">
-        <v>196</v>
-      </c>
-      <c r="D20" s="47" t="s">
+        <v>189</v>
+      </c>
+      <c r="D20" s="40" t="s">
         <v>94</v>
       </c>
       <c r="E20" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.35">
@@ -3759,13 +3829,13 @@
         <v>led-toplane2</v>
       </c>
       <c r="C21" t="s">
-        <v>197</v>
-      </c>
-      <c r="D21" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="D21" s="40" t="s">
         <v>95</v>
       </c>
       <c r="E21" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.35">
@@ -3774,13 +3844,13 @@
         <v>led-toplane3</v>
       </c>
       <c r="C22" t="s">
-        <v>198</v>
-      </c>
-      <c r="D22" s="47" t="s">
-        <v>184</v>
+        <v>191</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>177</v>
       </c>
       <c r="E22" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.35">
@@ -3789,13 +3859,13 @@
         <v>led-orbit-t</v>
       </c>
       <c r="C23" t="s">
-        <v>223</v>
-      </c>
-      <c r="D23" s="47" t="s">
-        <v>185</v>
+        <v>216</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>178</v>
       </c>
       <c r="E23" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.35">
@@ -3804,13 +3874,13 @@
         <v>led-target-e1</v>
       </c>
       <c r="C24" t="s">
-        <v>242</v>
-      </c>
-      <c r="D24" s="47" t="s">
-        <v>186</v>
+        <v>235</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>179</v>
       </c>
       <c r="E24" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.35">
@@ -3819,13 +3889,13 @@
         <v>led-target-e2</v>
       </c>
       <c r="C25" t="s">
-        <v>243</v>
-      </c>
-      <c r="D25" s="47" t="s">
-        <v>187</v>
+        <v>236</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>180</v>
       </c>
       <c r="E25" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.35">
@@ -3834,13 +3904,13 @@
         <v>led-aerial</v>
       </c>
       <c r="C26" t="s">
-        <v>245</v>
-      </c>
-      <c r="D26" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="D26" s="40" t="s">
         <v>96</v>
       </c>
       <c r="E26" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.35">
@@ -3849,13 +3919,13 @@
         <v>led-target-m3</v>
       </c>
       <c r="C27" t="s">
-        <v>262</v>
-      </c>
-      <c r="D27" s="47" t="s">
+        <v>255</v>
+      </c>
+      <c r="D27" s="40" t="s">
         <v>97</v>
       </c>
       <c r="E27" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.35">
@@ -3864,13 +3934,13 @@
         <v>led-portal-m</v>
       </c>
       <c r="C28" t="s">
-        <v>247</v>
-      </c>
-      <c r="D28" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="D28" s="40" t="s">
         <v>98</v>
       </c>
       <c r="E28" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.35">
@@ -3879,13 +3949,13 @@
         <v>led-target-m4</v>
       </c>
       <c r="C29" t="s">
-        <v>261</v>
-      </c>
-      <c r="D29" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="D29" s="40" t="s">
         <v>99</v>
       </c>
       <c r="E29" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.35">
@@ -3894,13 +3964,13 @@
         <v>led-ramp-l</v>
       </c>
       <c r="C30" t="s">
-        <v>249</v>
-      </c>
-      <c r="D30" s="47" t="s">
-        <v>188</v>
+        <v>242</v>
+      </c>
+      <c r="D30" s="40" t="s">
+        <v>181</v>
       </c>
       <c r="E30" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.35">
@@ -3909,13 +3979,13 @@
         <v>led-orbit-l</v>
       </c>
       <c r="C31" t="s">
-        <v>221</v>
-      </c>
-      <c r="D31" s="47" t="s">
-        <v>189</v>
+        <v>214</v>
+      </c>
+      <c r="D31" s="40" t="s">
+        <v>182</v>
       </c>
       <c r="E31" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.35">
@@ -3924,13 +3994,13 @@
         <v>led-button</v>
       </c>
       <c r="C32" t="s">
-        <v>250</v>
-      </c>
-      <c r="D32" s="47" t="s">
-        <v>206</v>
+        <v>243</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>199</v>
       </c>
       <c r="E32" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.35">
@@ -3939,13 +4009,13 @@
         <v>led-target-l1</v>
       </c>
       <c r="C33" t="s">
-        <v>308</v>
-      </c>
-      <c r="D33" s="47" t="s">
-        <v>207</v>
+        <v>301</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>200</v>
       </c>
       <c r="E33" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.35">
@@ -3954,13 +4024,13 @@
         <v>led-insinerator</v>
       </c>
       <c r="C34" t="s">
-        <v>309</v>
-      </c>
-      <c r="D34" s="47" t="s">
-        <v>234</v>
+        <v>302</v>
+      </c>
+      <c r="D34" s="40" t="s">
+        <v>227</v>
       </c>
       <c r="E34" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.35">
@@ -3969,28 +4039,28 @@
         <v>led-dropper</v>
       </c>
       <c r="C35" t="s">
-        <v>343</v>
-      </c>
-      <c r="D35" s="47" t="s">
-        <v>235</v>
+        <v>335</v>
+      </c>
+      <c r="D35" s="40" t="s">
+        <v>228</v>
       </c>
       <c r="E35" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B36" s="42" t="str">
+      <c r="B36" t="str">
         <f t="shared" si="0"/>
         <v>led-exit-success</v>
       </c>
-      <c r="C36" s="42" t="s">
-        <v>355</v>
-      </c>
-      <c r="D36" s="47" t="s">
-        <v>236</v>
-      </c>
-      <c r="E36" s="42" t="s">
-        <v>354</v>
+      <c r="C36" t="s">
+        <v>347</v>
+      </c>
+      <c r="D36" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="E36" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.35">
@@ -3998,14 +4068,14 @@
         <f t="shared" si="0"/>
         <v>led-exit-open-1</v>
       </c>
-      <c r="C37" s="42" t="s">
-        <v>358</v>
-      </c>
-      <c r="D37" s="47" t="s">
-        <v>237</v>
-      </c>
-      <c r="E37" s="42" t="s">
-        <v>363</v>
+      <c r="C37" t="s">
+        <v>350</v>
+      </c>
+      <c r="D37" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="E37" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.35">
@@ -4013,14 +4083,14 @@
         <f t="shared" si="0"/>
         <v>led-exit-open-2</v>
       </c>
-      <c r="C38" s="42" t="s">
-        <v>359</v>
-      </c>
-      <c r="D38" s="47" t="s">
-        <v>238</v>
-      </c>
-      <c r="E38" s="42" t="s">
-        <v>364</v>
+      <c r="C38" t="s">
+        <v>351</v>
+      </c>
+      <c r="D38" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="E38" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.35">
@@ -4028,14 +4098,14 @@
         <f t="shared" si="0"/>
         <v>led-exit-open-3</v>
       </c>
-      <c r="C39" s="42" t="s">
-        <v>360</v>
-      </c>
-      <c r="D39" s="47" t="s">
-        <v>239</v>
-      </c>
-      <c r="E39" s="42" t="s">
-        <v>365</v>
+      <c r="C39" t="s">
+        <v>352</v>
+      </c>
+      <c r="D39" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="E39" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.35">
@@ -4043,14 +4113,14 @@
         <f t="shared" si="0"/>
         <v>led-exit-open-4</v>
       </c>
-      <c r="C40" s="42" t="s">
-        <v>361</v>
-      </c>
-      <c r="D40" s="47" t="s">
-        <v>256</v>
-      </c>
-      <c r="E40" s="42" t="s">
-        <v>366</v>
+      <c r="C40" t="s">
+        <v>353</v>
+      </c>
+      <c r="D40" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="E40" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.35">
@@ -4058,14 +4128,14 @@
         <f t="shared" si="0"/>
         <v>led-exit-open-5</v>
       </c>
-      <c r="C41" s="42" t="s">
-        <v>362</v>
-      </c>
-      <c r="D41" s="47" t="s">
-        <v>257</v>
-      </c>
-      <c r="E41" s="42" t="s">
-        <v>367</v>
+      <c r="C41" t="s">
+        <v>354</v>
+      </c>
+      <c r="D41" s="40" t="s">
+        <v>250</v>
+      </c>
+      <c r="E41" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.35">
@@ -4074,7 +4144,7 @@
         <v>led-</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.35">
@@ -4083,7 +4153,7 @@
         <v>led-</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.35">
@@ -4092,7 +4162,7 @@
         <v>led-</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.35">
@@ -4101,7 +4171,7 @@
         <v>led-</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.35">
@@ -4110,7 +4180,7 @@
         <v>led-</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.35">
@@ -4119,7 +4189,7 @@
         <v>led-</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.35">
@@ -4128,7 +4198,7 @@
         <v>led-</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.35">
@@ -4137,7 +4207,7 @@
         <v>led-</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.35">
@@ -4146,7 +4216,7 @@
         <v>led-</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.35">
@@ -4155,7 +4225,7 @@
         <v>led-</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -4198,12 +4268,12 @@
   <sheetData>
     <row r="2" spans="2:105" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="2:105" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="2:105" ht="164.25" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4601,8 +4671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896D7F36-299A-4BDE-822D-D1A9A709E1EC}">
   <dimension ref="B1:AZ47"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AO18" sqref="AO18:AO20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5026,7 +5096,7 @@
     </row>
     <row r="7" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B7" s="33" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C7" s="15" t="str">
         <f>$H$41&amp;"-"&amp;I$32&amp;"-"&amp;E7</f>
@@ -5092,7 +5162,7 @@
       <c r="AL7" s="18"/>
       <c r="AM7" s="18"/>
       <c r="AO7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="AP7" s="15" t="str">
         <f>$H$41&amp;"-"&amp;AV$32&amp;"-"&amp;AR7</f>
@@ -5117,7 +5187,7 @@
     </row>
     <row r="8" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B8" s="33" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C8" s="15" t="str">
         <f t="shared" ref="C8:C22" si="0">$H$41&amp;"-"&amp;I$32&amp;"-"&amp;E8</f>
@@ -5208,7 +5278,7 @@
       </c>
       <c r="AM8" s="26"/>
       <c r="AO8" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AP8" s="15" t="str">
         <f t="shared" ref="AP8:AP22" si="3">$H$41&amp;"-"&amp;AV$32&amp;"-"&amp;AR8</f>
@@ -5330,7 +5400,7 @@
       </c>
       <c r="AM9" s="26"/>
       <c r="AO9" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AP9" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5452,7 +5522,7 @@
       </c>
       <c r="AM10" s="26"/>
       <c r="AO10" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AP10" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5574,7 +5644,7 @@
       </c>
       <c r="AM11" s="26"/>
       <c r="AO11" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AP11" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5702,7 +5772,7 @@
       </c>
       <c r="AM12" s="26"/>
       <c r="AO12" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AP12" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5825,8 +5895,8 @@
         <v>2-2-21</v>
       </c>
       <c r="AM13" s="26"/>
-      <c r="AO13" s="42" t="s">
-        <v>316</v>
+      <c r="AO13" t="s">
+        <v>309</v>
       </c>
       <c r="AP13" s="15" t="str">
         <f t="shared" si="3"/>
@@ -5947,6 +6017,9 @@
         <v>2-2-22</v>
       </c>
       <c r="AM14" s="26"/>
+      <c r="AO14" t="s">
+        <v>381</v>
+      </c>
       <c r="AP14" s="15" t="str">
         <f t="shared" si="3"/>
         <v>2-3-7</v>
@@ -5976,7 +6049,7 @@
     </row>
     <row r="15" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B15" s="33" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C15" s="15" t="str">
         <f t="shared" si="0"/>
@@ -6037,7 +6110,7 @@
         <v>2-1-23</v>
       </c>
       <c r="Z15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="AC15" s="15" t="str">
         <f t="shared" si="2"/>
@@ -6066,6 +6139,9 @@
         <v>2-2-23</v>
       </c>
       <c r="AM15" s="26"/>
+      <c r="AO15" t="s">
+        <v>382</v>
+      </c>
       <c r="AP15" s="15" t="str">
         <f t="shared" si="3"/>
         <v>2-3-8</v>
@@ -6095,7 +6171,7 @@
     </row>
     <row r="16" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B16" s="33" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C16" s="15" t="str">
         <f t="shared" si="0"/>
@@ -6156,7 +6232,7 @@
         <v>2-1-24</v>
       </c>
       <c r="Z16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AC16" s="15" t="str">
         <f t="shared" si="2"/>
@@ -6185,6 +6261,9 @@
         <v>2-2-24</v>
       </c>
       <c r="AM16" s="26"/>
+      <c r="AO16" t="s">
+        <v>383</v>
+      </c>
       <c r="AP16" s="15" t="str">
         <f t="shared" si="3"/>
         <v>2-3-9</v>
@@ -6214,7 +6293,7 @@
     </row>
     <row r="17" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B17" s="33" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C17" s="15" t="str">
         <f t="shared" si="0"/>
@@ -6275,7 +6354,7 @@
         <v>2-1-25</v>
       </c>
       <c r="Z17" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AC17" s="15" t="str">
         <f t="shared" si="2"/>
@@ -6304,6 +6383,9 @@
         <v>2-2-25</v>
       </c>
       <c r="AM17" s="26"/>
+      <c r="AO17" t="s">
+        <v>384</v>
+      </c>
       <c r="AP17" s="15" t="str">
         <f t="shared" si="3"/>
         <v>2-3-10</v>
@@ -6394,7 +6476,7 @@
         <v>2-1-26</v>
       </c>
       <c r="Z18" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AC18" s="15" t="str">
         <f t="shared" si="2"/>
@@ -6423,6 +6505,9 @@
         <v>2-2-26</v>
       </c>
       <c r="AM18" s="26"/>
+      <c r="AO18" s="47" t="s">
+        <v>393</v>
+      </c>
       <c r="AP18" s="15" t="str">
         <f t="shared" si="3"/>
         <v>2-3-11</v>
@@ -6481,7 +6566,7 @@
         <v>2-0-27</v>
       </c>
       <c r="M19" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="O19" s="32" t="s">
         <v>145</v>
@@ -6513,7 +6598,7 @@
         <v>2-1-27</v>
       </c>
       <c r="Z19" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AC19" s="15" t="str">
         <f t="shared" si="2"/>
@@ -6542,6 +6627,9 @@
         <v>2-2-27</v>
       </c>
       <c r="AM19" s="26"/>
+      <c r="AO19" s="47" t="s">
+        <v>396</v>
+      </c>
       <c r="AP19" s="15" t="str">
         <f t="shared" si="3"/>
         <v>2-3-12</v>
@@ -6600,7 +6688,7 @@
         <v>2-0-28</v>
       </c>
       <c r="M20" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="O20" s="32" t="s">
         <v>145</v>
@@ -6631,8 +6719,8 @@
         <f t="shared" si="5"/>
         <v>2-1-28</v>
       </c>
-      <c r="Z20" s="34" t="s">
-        <v>173</v>
+      <c r="Z20" s="47" t="s">
+        <v>388</v>
       </c>
       <c r="AC20" s="15" t="str">
         <f t="shared" si="2"/>
@@ -6661,6 +6749,9 @@
         <v>2-2-28</v>
       </c>
       <c r="AM20" s="26"/>
+      <c r="AO20" s="47" t="s">
+        <v>394</v>
+      </c>
       <c r="AP20" s="15" t="str">
         <f t="shared" si="3"/>
         <v>2-3-13</v>
@@ -6718,8 +6809,8 @@
         <f t="shared" si="4"/>
         <v>2-0-29</v>
       </c>
-      <c r="M21" s="34" t="s">
-        <v>165</v>
+      <c r="M21" s="47" t="s">
+        <v>385</v>
       </c>
       <c r="O21" s="32" t="s">
         <v>145</v>
@@ -6750,8 +6841,8 @@
         <f t="shared" si="5"/>
         <v>2-1-29</v>
       </c>
-      <c r="Z21" s="34" t="s">
-        <v>174</v>
+      <c r="Z21" s="47" t="s">
+        <v>391</v>
       </c>
       <c r="AC21" s="15" t="str">
         <f t="shared" si="2"/>
@@ -6809,7 +6900,7 @@
     </row>
     <row r="22" spans="2:52" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C22" s="15" t="str">
         <f t="shared" si="0"/>
@@ -6837,8 +6928,8 @@
         <f t="shared" si="4"/>
         <v>2-0-30</v>
       </c>
-      <c r="M22" s="34" t="s">
-        <v>166</v>
+      <c r="M22" s="47" t="s">
+        <v>386</v>
       </c>
       <c r="O22" s="32" t="s">
         <v>145</v>
@@ -6869,8 +6960,8 @@
         <f t="shared" si="5"/>
         <v>2-1-30</v>
       </c>
-      <c r="Z22" s="34" t="s">
-        <v>175</v>
+      <c r="Z22" s="47" t="s">
+        <v>392</v>
       </c>
       <c r="AC22" s="15" t="str">
         <f t="shared" si="2"/>
@@ -6947,8 +7038,8 @@
         <f t="shared" si="4"/>
         <v>2-0-31</v>
       </c>
-      <c r="M23" s="34" t="s">
-        <v>167</v>
+      <c r="M23" s="47" t="s">
+        <v>387</v>
       </c>
       <c r="O23" s="16"/>
       <c r="P23" s="16"/>
@@ -6970,8 +7061,8 @@
         <f t="shared" si="5"/>
         <v>2-1-31</v>
       </c>
-      <c r="Z23" s="34" t="s">
-        <v>176</v>
+      <c r="Z23" s="47" t="s">
+        <v>395</v>
       </c>
       <c r="AB23" s="16"/>
       <c r="AC23" s="16"/>
@@ -7214,30 +7305,30 @@
     </row>
     <row r="31" spans="2:52" x14ac:dyDescent="0.35">
       <c r="F31" s="3"/>
-      <c r="G31" s="36" t="s">
-        <v>178</v>
-      </c>
-      <c r="H31" s="36"/>
+      <c r="G31" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="H31" s="41"/>
       <c r="I31" s="8"/>
       <c r="S31" s="3"/>
-      <c r="T31" s="36" t="str">
+      <c r="T31" s="41" t="str">
         <f>G31</f>
         <v>COM6</v>
       </c>
-      <c r="U31" s="36"/>
+      <c r="U31" s="41"/>
       <c r="V31" s="8"/>
       <c r="AF31" s="3"/>
-      <c r="AG31" s="36" t="str">
+      <c r="AG31" s="41" t="str">
         <f>T31</f>
         <v>COM6</v>
       </c>
-      <c r="AH31" s="36"/>
+      <c r="AH31" s="41"/>
       <c r="AI31" s="8"/>
       <c r="AS31" s="3"/>
-      <c r="AT31" s="36" t="s">
+      <c r="AT31" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="AU31" s="36"/>
+      <c r="AU31" s="41"/>
       <c r="AV31" s="8"/>
     </row>
     <row r="32" spans="2:52" x14ac:dyDescent="0.35">
@@ -7312,33 +7403,48 @@
       <c r="AU35" s="7"/>
     </row>
     <row r="36" spans="3:48" x14ac:dyDescent="0.35">
-      <c r="G36" s="37" t="s">
+      <c r="G36" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="H36" s="38"/>
-      <c r="T36" s="37" t="s">
+      <c r="H36" s="43"/>
+      <c r="T36" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="U36" s="38"/>
-      <c r="AG36" s="37" t="s">
+      <c r="U36" s="43"/>
+      <c r="Y36" s="47"/>
+      <c r="AG36" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="AH36" s="38"/>
-      <c r="AT36" s="37" t="s">
+      <c r="AH36" s="43"/>
+      <c r="AT36" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="AU36" s="38"/>
+      <c r="AU36" s="43"/>
     </row>
     <row r="37" spans="3:48" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="G37" s="6"/>
       <c r="H37" s="11"/>
       <c r="T37" s="6"/>
       <c r="U37" s="11"/>
+      <c r="Y37" s="47"/>
       <c r="AG37" s="6"/>
       <c r="AH37" s="11"/>
       <c r="AT37" s="6"/>
       <c r="AU37" s="11"/>
     </row>
+    <row r="38" spans="3:48" x14ac:dyDescent="0.35">
+      <c r="Y38" s="47"/>
+    </row>
+    <row r="39" spans="3:48" x14ac:dyDescent="0.35">
+      <c r="Y39" s="47" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="40" spans="3:48" x14ac:dyDescent="0.35">
+      <c r="Y40" s="47" t="s">
+        <v>396</v>
+      </c>
+    </row>
     <row r="41" spans="3:48" x14ac:dyDescent="0.35">
       <c r="F41" s="25" t="s">
         <v>130</v>
@@ -7347,11 +7453,14 @@
       <c r="H41" s="25">
         <v>2</v>
       </c>
+      <c r="Y41" s="47" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="43" spans="3:48" x14ac:dyDescent="0.35">
       <c r="C43" s="17"/>
       <c r="M43" s="32" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="P43" s="17"/>
       <c r="AC43" s="17"/>
@@ -7366,7 +7475,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="34" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="45" spans="3:48" x14ac:dyDescent="0.35">
@@ -10067,28 +10176,28 @@
     </row>
     <row r="31" spans="2:44" x14ac:dyDescent="0.35">
       <c r="E31" s="3"/>
-      <c r="F31" s="36" t="s">
+      <c r="F31" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="G31" s="36"/>
+      <c r="G31" s="41"/>
       <c r="H31" s="8"/>
       <c r="P31" s="3"/>
-      <c r="Q31" s="36" t="s">
+      <c r="Q31" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="R31" s="36"/>
+      <c r="R31" s="41"/>
       <c r="S31" s="8"/>
       <c r="AA31" s="3"/>
-      <c r="AB31" s="36" t="s">
+      <c r="AB31" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="AC31" s="36"/>
+      <c r="AC31" s="41"/>
       <c r="AD31" s="8"/>
       <c r="AL31" s="3"/>
-      <c r="AM31" s="36" t="s">
+      <c r="AM31" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="AN31" s="36"/>
+      <c r="AN31" s="41"/>
       <c r="AO31" s="8"/>
     </row>
     <row r="32" spans="2:44" x14ac:dyDescent="0.35">
@@ -10163,22 +10272,22 @@
       <c r="AN35" s="7"/>
     </row>
     <row r="36" spans="2:41" x14ac:dyDescent="0.35">
-      <c r="F36" s="37" t="s">
+      <c r="F36" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="G36" s="38"/>
-      <c r="Q36" s="37" t="s">
+      <c r="G36" s="43"/>
+      <c r="Q36" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="R36" s="38"/>
-      <c r="AB36" s="37" t="s">
+      <c r="R36" s="43"/>
+      <c r="AB36" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="AC36" s="38"/>
-      <c r="AM36" s="37" t="s">
+      <c r="AC36" s="43"/>
+      <c r="AM36" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="AN36" s="38"/>
+      <c r="AN36" s="43"/>
     </row>
     <row r="37" spans="2:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F37" s="6"/>
@@ -10392,10 +10501,10 @@
       <c r="E12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="F12" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="G12" s="39"/>
+      <c r="G12" s="44"/>
       <c r="H12" s="8" t="s">
         <v>40</v>
       </c>
@@ -10544,10 +10653,10 @@
     </row>
     <row r="31" spans="4:9" x14ac:dyDescent="0.35">
       <c r="E31" s="3"/>
-      <c r="F31" s="36" t="s">
+      <c r="F31" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="G31" s="36"/>
+      <c r="G31" s="41"/>
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="4:9" x14ac:dyDescent="0.35">
@@ -10569,10 +10678,10 @@
       <c r="G35" s="7"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="F36" s="37" t="s">
+      <c r="F36" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="G36" s="38"/>
+      <c r="G36" s="43"/>
     </row>
     <row r="37" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="F37" s="6"/>

--- a/board Overviews.xlsx
+++ b/board Overviews.xlsx
@@ -1,32 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a50f0f76735a0c6b/Documents/Pinball/PortalPinball-V4.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="595" documentId="8_{71A0D3BC-EF29-42BB-95C3-409B160B156F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8F4BEE1-127C-4B4A-850F-3E1D7596E42D}"/>
+  <xr:revisionPtr revIDLastSave="651" documentId="8_{71A0D3BC-EF29-42BB-95C3-409B160B156F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24EF187F-A088-495E-8559-76E6C3FE6403}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="725" xr2:uid="{992D9940-FEE0-4AED-9001-DC6BE0040B0B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="725" activeTab="1" xr2:uid="{992D9940-FEE0-4AED-9001-DC6BE0040B0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Modes" sheetId="11" r:id="rId1"/>
-    <sheet name="LEDs" sheetId="10" r:id="rId2"/>
-    <sheet name="Cobrapin - Game Funtion" sheetId="8" r:id="rId3"/>
-    <sheet name="PSOC4200 - Game Function" sheetId="7" r:id="rId4"/>
-    <sheet name="---" sheetId="9" r:id="rId5"/>
-    <sheet name="Cobrapin - Doc" sheetId="5" r:id="rId6"/>
-    <sheet name="PSOC4200 - Config" sheetId="6" r:id="rId7"/>
-    <sheet name="PSOC4200 - Doc" sheetId="1" r:id="rId8"/>
-    <sheet name="Coil" sheetId="2" r:id="rId9"/>
-    <sheet name="Switch" sheetId="4" r:id="rId10"/>
-    <sheet name="Incand" sheetId="3" r:id="rId11"/>
+    <sheet name="Ball devices" sheetId="12" r:id="rId2"/>
+    <sheet name="LEDs" sheetId="10" r:id="rId3"/>
+    <sheet name="Cobrapin - Game Funtion" sheetId="8" r:id="rId4"/>
+    <sheet name="PSOC4200 - Game Function" sheetId="7" r:id="rId5"/>
+    <sheet name="---" sheetId="9" r:id="rId6"/>
+    <sheet name="Cobrapin - Doc" sheetId="5" r:id="rId7"/>
+    <sheet name="PSOC4200 - Config" sheetId="6" r:id="rId8"/>
+    <sheet name="PSOC4200 - Doc" sheetId="1" r:id="rId9"/>
+    <sheet name="Coil" sheetId="2" r:id="rId10"/>
+    <sheet name="Switch" sheetId="4" r:id="rId11"/>
+    <sheet name="Incand" sheetId="3" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">LEDs!$B$1:$E$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">LEDs!$B$1:$E$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="427">
   <si>
     <t>PSOC4200</t>
   </si>
@@ -1302,6 +1303,96 @@
   </si>
   <si>
     <t>s-portal-m</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>Draw</t>
+  </si>
+  <si>
+    <t>Code-name</t>
+  </si>
+  <si>
+    <t>Stop ball on first launch to get more top lane shots</t>
+  </si>
+  <si>
+    <t>Vuk1</t>
+  </si>
+  <si>
+    <t>Vuk2</t>
+  </si>
+  <si>
+    <t>Launch ball to top mini playfield</t>
+  </si>
+  <si>
+    <t>Capture ball for multi ball, at exit</t>
+  </si>
+  <si>
+    <t>Capture ball for multi ball after mini field</t>
+  </si>
+  <si>
+    <t>Vuk3</t>
+  </si>
+  <si>
+    <t>Vuk4</t>
+  </si>
+  <si>
+    <t>Vuk5</t>
+  </si>
+  <si>
+    <t>Capture ball for multi ball (feed at rear?)</t>
+  </si>
+  <si>
+    <t>Capture ball for multi ball: incinerator</t>
+  </si>
+  <si>
+    <t>Vuk6</t>
+  </si>
+  <si>
+    <t>Capture ball for multi ball: ball dropper (feed via diverter)</t>
+  </si>
+  <si>
+    <t>Div</t>
+  </si>
+  <si>
+    <t>Divert ball to ball dropper</t>
+  </si>
+  <si>
+    <t>Servo</t>
+  </si>
+  <si>
+    <t>Release ball from ball dropper</t>
+  </si>
+  <si>
+    <t>Bsv</t>
+  </si>
+  <si>
+    <t>Ball saver</t>
+  </si>
+  <si>
+    <t>hardware</t>
+  </si>
+  <si>
+    <t>Drop post</t>
+  </si>
+  <si>
+    <t>catapult</t>
+  </si>
+  <si>
+    <t>high vuk</t>
+  </si>
+  <si>
+    <t>vuk</t>
+  </si>
+  <si>
+    <t>Diverter</t>
+  </si>
+  <si>
+    <t>servo</t>
+  </si>
+  <si>
+    <t>ball saver</t>
   </si>
 </sst>
 </file>
@@ -1544,7 +1635,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1666,7 +1757,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2299,6 +2389,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -2596,9 +2690,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{504015E5-CEAB-419C-A33C-D2331DC4ED29}">
-  <dimension ref="A1:N60"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M30" sqref="M30:N36"/>
     </sheetView>
   </sheetViews>
@@ -2890,7 +2984,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>293</v>
       </c>
@@ -2910,7 +3004,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C19" s="1">
         <v>1</v>
       </c>
@@ -2924,7 +3018,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C20" s="1">
         <v>1</v>
       </c>
@@ -2938,7 +3032,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C21" s="1">
         <v>1</v>
       </c>
@@ -2952,7 +3046,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C22" s="1">
         <v>1</v>
       </c>
@@ -2966,7 +3060,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C23" s="1">
         <v>1</v>
       </c>
@@ -2980,7 +3074,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>324</v>
       </c>
@@ -3000,7 +3094,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C26" s="1">
         <v>1</v>
       </c>
@@ -3014,7 +3108,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C27" s="1">
         <v>1</v>
       </c>
@@ -3028,7 +3122,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>327</v>
       </c>
@@ -3038,7 +3132,7 @@
       <c r="D29" t="s">
         <v>148</v>
       </c>
-      <c r="E29" s="47" t="s">
+      <c r="E29" t="s">
         <v>381</v>
       </c>
       <c r="F29" s="1">
@@ -3047,20 +3141,14 @@
       <c r="G29" t="s">
         <v>285</v>
       </c>
-      <c r="H29" s="47" t="s">
+      <c r="H29" t="s">
         <v>383</v>
       </c>
       <c r="I29" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="E30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>241</v>
       </c>
@@ -3070,7 +3158,7 @@
       <c r="D31" t="s">
         <v>148</v>
       </c>
-      <c r="E31" s="47" t="s">
+      <c r="E31" t="s">
         <v>382</v>
       </c>
       <c r="F31" s="1">
@@ -3079,20 +3167,14 @@
       <c r="G31" t="s">
         <v>285</v>
       </c>
-      <c r="H31" s="47" t="s">
+      <c r="H31" t="s">
         <v>384</v>
       </c>
       <c r="I31" t="s">
         <v>323</v>
       </c>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>338</v>
       </c>
@@ -3102,36 +3184,28 @@
       <c r="D33" t="s">
         <v>261</v>
       </c>
-      <c r="E33" s="47" t="s">
+      <c r="E33" t="s">
         <v>385</v>
       </c>
       <c r="I33" t="s">
         <v>339</v>
       </c>
-      <c r="M33" s="47"/>
-      <c r="N33" s="47"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C34" s="1">
         <v>1</v>
       </c>
       <c r="D34" t="s">
         <v>261</v>
       </c>
-      <c r="E34" s="47" t="s">
+      <c r="E34" t="s">
         <v>386</v>
       </c>
       <c r="I34" t="s">
         <v>340</v>
       </c>
-      <c r="M34" s="47"/>
-      <c r="N34" s="47"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="M35" s="47"/>
-      <c r="N35" s="47"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>243</v>
       </c>
@@ -3141,16 +3215,14 @@
       <c r="D36" t="s">
         <v>334</v>
       </c>
-      <c r="E36" s="47" t="s">
+      <c r="E36" t="s">
         <v>387</v>
       </c>
       <c r="I36" t="s">
         <v>344</v>
       </c>
-      <c r="M36" s="47"/>
-      <c r="N36" s="47"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>345</v>
       </c>
@@ -3173,7 +3245,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C39" s="1">
         <v>1</v>
       </c>
@@ -3190,7 +3262,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C40" s="1">
         <v>1</v>
       </c>
@@ -3207,7 +3279,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C41" s="1">
         <v>1</v>
       </c>
@@ -3224,7 +3296,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C42" s="1">
         <v>1</v>
       </c>
@@ -3241,7 +3313,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>369</v>
       </c>
@@ -3258,29 +3330,28 @@
         <v>367</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>290</v>
       </c>
       <c r="B47" t="s">
         <v>291</v>
       </c>
-      <c r="E47" s="47" t="s">
+      <c r="E47" t="s">
         <v>388</v>
       </c>
       <c r="I47" s="23" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="E48" s="47"/>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="I48" s="23"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>292</v>
       </c>
-      <c r="E49" s="47" t="s">
+      <c r="E49" t="s">
         <v>389</v>
       </c>
       <c r="I49" s="23" t="s">
@@ -3288,7 +3359,6 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E50" s="47"/>
       <c r="I50" s="23"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
@@ -3298,7 +3368,7 @@
       <c r="B51" t="s">
         <v>282</v>
       </c>
-      <c r="E51" s="47" t="s">
+      <c r="E51" t="s">
         <v>390</v>
       </c>
       <c r="I51" s="23" t="s">
@@ -3318,7 +3388,7 @@
       <c r="D55" t="s">
         <v>334</v>
       </c>
-      <c r="E55" s="47" t="s">
+      <c r="E55" t="s">
         <v>391</v>
       </c>
       <c r="I55" t="s">
@@ -3335,7 +3405,7 @@
       <c r="D56" t="s">
         <v>334</v>
       </c>
-      <c r="E56" s="47" t="s">
+      <c r="E56" t="s">
         <v>392</v>
       </c>
       <c r="I56" t="s">
@@ -3352,7 +3422,7 @@
       <c r="D57" t="s">
         <v>334</v>
       </c>
-      <c r="E57" s="47" t="s">
+      <c r="E57" t="s">
         <v>395</v>
       </c>
       <c r="I57" t="s">
@@ -3369,7 +3439,7 @@
       <c r="D58" t="s">
         <v>334</v>
       </c>
-      <c r="E58" s="47" t="s">
+      <c r="E58" t="s">
         <v>393</v>
       </c>
       <c r="I58" t="s">
@@ -3386,7 +3456,7 @@
       <c r="D59" t="s">
         <v>334</v>
       </c>
-      <c r="E59" s="47" t="s">
+      <c r="E59" t="s">
         <v>396</v>
       </c>
       <c r="I59" t="s">
@@ -3403,7 +3473,7 @@
       <c r="D60" t="s">
         <v>334</v>
       </c>
-      <c r="E60" s="47" t="s">
+      <c r="E60" t="s">
         <v>394</v>
       </c>
       <c r="I60" t="s">
@@ -3417,6 +3487,47 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D4EE48-CA29-4AF5-8B5C-E4B4B1F31048}">
+  <dimension ref="B28:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50ED5F98-D515-44A8-8822-0D97D946717D}">
   <dimension ref="B18:M19"/>
   <sheetViews>
@@ -3469,7 +3580,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2780EF84-6B31-4EAC-80B5-D5D7A18FF689}">
   <dimension ref="B22"/>
   <sheetViews>
@@ -3491,6 +3602,150 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA66CEF0-BB4C-421C-91C0-863799021116}">
+  <dimension ref="B1:E20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.6328125" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D4" t="s">
+        <v>404</v>
+      </c>
+      <c r="E4" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>402</v>
+      </c>
+      <c r="D6" t="s">
+        <v>403</v>
+      </c>
+      <c r="E6" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>406</v>
+      </c>
+      <c r="D8" t="s">
+        <v>405</v>
+      </c>
+      <c r="E8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>407</v>
+      </c>
+      <c r="D10" t="s">
+        <v>409</v>
+      </c>
+      <c r="E10" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>408</v>
+      </c>
+      <c r="D12" t="s">
+        <v>410</v>
+      </c>
+      <c r="E12" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>411</v>
+      </c>
+      <c r="D14" t="s">
+        <v>412</v>
+      </c>
+      <c r="E14" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>413</v>
+      </c>
+      <c r="D16" t="s">
+        <v>414</v>
+      </c>
+      <c r="E16" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>415</v>
+      </c>
+      <c r="D18" t="s">
+        <v>416</v>
+      </c>
+      <c r="E18" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>417</v>
+      </c>
+      <c r="D20" t="s">
+        <v>418</v>
+      </c>
+      <c r="E20" t="s">
+        <v>426</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E848134-5BBE-40A2-B435-5EF431EA961E}">
   <dimension ref="B1:J51"/>
   <sheetViews>
@@ -4236,7 +4491,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64143CA7-704E-4C2D-9785-F0A4C7EA94D7}">
   <dimension ref="B2:DA44"/>
   <sheetViews>
@@ -4667,7 +4922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896D7F36-299A-4BDE-822D-D1A9A709E1EC}">
   <dimension ref="B1:AZ47"/>
   <sheetViews>
@@ -6505,7 +6760,7 @@
         <v>2-2-26</v>
       </c>
       <c r="AM18" s="26"/>
-      <c r="AO18" s="47" t="s">
+      <c r="AO18" t="s">
         <v>393</v>
       </c>
       <c r="AP18" s="15" t="str">
@@ -6627,7 +6882,7 @@
         <v>2-2-27</v>
       </c>
       <c r="AM19" s="26"/>
-      <c r="AO19" s="47" t="s">
+      <c r="AO19" t="s">
         <v>396</v>
       </c>
       <c r="AP19" s="15" t="str">
@@ -6719,7 +6974,7 @@
         <f t="shared" si="5"/>
         <v>2-1-28</v>
       </c>
-      <c r="Z20" s="47" t="s">
+      <c r="Z20" t="s">
         <v>388</v>
       </c>
       <c r="AC20" s="15" t="str">
@@ -6749,7 +7004,7 @@
         <v>2-2-28</v>
       </c>
       <c r="AM20" s="26"/>
-      <c r="AO20" s="47" t="s">
+      <c r="AO20" t="s">
         <v>394</v>
       </c>
       <c r="AP20" s="15" t="str">
@@ -6809,7 +7064,7 @@
         <f t="shared" si="4"/>
         <v>2-0-29</v>
       </c>
-      <c r="M21" s="47" t="s">
+      <c r="M21" t="s">
         <v>385</v>
       </c>
       <c r="O21" s="32" t="s">
@@ -6841,7 +7096,7 @@
         <f t="shared" si="5"/>
         <v>2-1-29</v>
       </c>
-      <c r="Z21" s="47" t="s">
+      <c r="Z21" t="s">
         <v>391</v>
       </c>
       <c r="AC21" s="15" t="str">
@@ -6928,7 +7183,7 @@
         <f t="shared" si="4"/>
         <v>2-0-30</v>
       </c>
-      <c r="M22" s="47" t="s">
+      <c r="M22" t="s">
         <v>386</v>
       </c>
       <c r="O22" s="32" t="s">
@@ -6960,7 +7215,7 @@
         <f t="shared" si="5"/>
         <v>2-1-30</v>
       </c>
-      <c r="Z22" s="47" t="s">
+      <c r="Z22" t="s">
         <v>392</v>
       </c>
       <c r="AC22" s="15" t="str">
@@ -7038,7 +7293,7 @@
         <f t="shared" si="4"/>
         <v>2-0-31</v>
       </c>
-      <c r="M23" s="47" t="s">
+      <c r="M23" t="s">
         <v>387</v>
       </c>
       <c r="O23" s="16"/>
@@ -7061,7 +7316,7 @@
         <f t="shared" si="5"/>
         <v>2-1-31</v>
       </c>
-      <c r="Z23" s="47" t="s">
+      <c r="Z23" t="s">
         <v>395</v>
       </c>
       <c r="AB23" s="16"/>
@@ -7411,7 +7666,7 @@
         <v>26</v>
       </c>
       <c r="U36" s="43"/>
-      <c r="Y36" s="47"/>
+      <c r="Y36"/>
       <c r="AG36" s="42" t="s">
         <v>26</v>
       </c>
@@ -7426,22 +7681,22 @@
       <c r="H37" s="11"/>
       <c r="T37" s="6"/>
       <c r="U37" s="11"/>
-      <c r="Y37" s="47"/>
+      <c r="Y37"/>
       <c r="AG37" s="6"/>
       <c r="AH37" s="11"/>
       <c r="AT37" s="6"/>
       <c r="AU37" s="11"/>
     </row>
     <row r="38" spans="3:48" x14ac:dyDescent="0.35">
-      <c r="Y38" s="47"/>
+      <c r="Y38"/>
     </row>
     <row r="39" spans="3:48" x14ac:dyDescent="0.35">
-      <c r="Y39" s="47" t="s">
+      <c r="Y39" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="40" spans="3:48" x14ac:dyDescent="0.35">
-      <c r="Y40" s="47" t="s">
+      <c r="Y40" t="s">
         <v>396</v>
       </c>
     </row>
@@ -7453,7 +7708,7 @@
       <c r="H41" s="25">
         <v>2</v>
       </c>
-      <c r="Y41" s="47" t="s">
+      <c r="Y41" t="s">
         <v>394</v>
       </c>
     </row>
@@ -7522,7 +7777,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92BC837E-B245-42A3-8F6D-5B1D3622F670}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7536,7 +7791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12CF9BA9-790E-4443-8CE6-3586A1333188}">
   <dimension ref="C1:DA109"/>
   <sheetViews>
@@ -7976,7 +8231,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B9B565-78DA-42AC-A0D8-C5B614CDCC18}">
   <dimension ref="B1:AR47"/>
   <sheetViews>
@@ -10366,7 +10621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D32C0C9B-B0E5-442A-BA1C-E3DC79065275}">
   <dimension ref="B1:K43"/>
   <sheetViews>
@@ -10702,45 +10957,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D4EE48-CA29-4AF5-8B5C-E4B4B1F31048}">
-  <dimension ref="B28:B33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:B33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>